--- a/Result/check3/2025-04-22.xlsx
+++ b/Result/check3/2025-04-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV40"/>
+  <dimension ref="A1:AV42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-2.53</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>61</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>32438</t>
+          <t>13107</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>20.23</t>
+          <t>20.47</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3543</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>122</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.76</t>
+          <t>15.81</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>28.62</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>44664</t>
+          <t>44811</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-6.19</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>841</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>15.59</t>
+          <t>15.62</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>4605</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-12.44</t>
+          <t>-14.16</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>55</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>14763</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>13.78</t>
+          <t>13.57</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>38.21</t>
+          <t>38.63</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>6411</t>
+          <t>6315</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>828</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-1.54</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>18.23</t>
+          <t>18.29</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>25.49</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>10789</t>
+          <t>10828</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6890</t>
+          <t>7714</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>775.236</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>14.46</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>341.0</t>
+          <t>97.8</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,22 +1943,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>19.84</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1777</t>
+          <t>574</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1968,47 +1968,47 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-16.21</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-21.86</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2018,97 +2018,97 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>794202545.0</t>
+          <t>-33464.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>來億-KY</t>
+          <t>創泓科技</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>運動休閒</t>
+          <t>數位雲端</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>43.51</t>
+          <t>22.17</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>24.72</t>
+          <t>24.06</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>18.57%</t>
+          <t>24.41%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>11.72%</t>
+          <t>13.96%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>19.5</t>
+          <t>120.92</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>94398</t>
+          <t>2562</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>運動休閒鞋類100.00% (2024年)</t>
+          <t>資安授權保固32.85%、網路資訊安全軟體30.87%、網路資訊安全硬體28.48%、資安人力技術服務7.81% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>來億-KY-運動休閒-上市</t>
+          <t>創泓科技-數位雲端-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>數位雲端右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>97.84</t>
+          <t>16.4</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2118,12 +2118,12 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)** 軟體服務 - 系統整合服務、通路經銷** 金融科技 - 數據分析、數位身分** 人工智慧 - 系統整合、顧問諮詢、領域解決方案、機器學習、自然語言處理、雲端平台、資料處理** 雲端運算 - 設備管理軟體、營運管理軟體、資安防護軟體、系統整合、顧問諮詢、SaaS** 資通訊安全 - 安全營運與事件回應、資安治理、資料安全、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、身分認證與訪問管理、行動安全、資安防護能力分析與鑑識服務、資安營運管理服務、資安顧問服務</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6834</t>
+          <t>6890</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2471.129</t>
+          <t>775.236</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>30.85</t>
+          <t>341.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,37 +2185,37 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>1622</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-5.62</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -2225,17 +2225,17 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-16.21</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>-21.86</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>258.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2265,32 +2265,32 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>120031823.0</t>
+          <t>794202545.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>天二科技</t>
+          <t>來億-KY</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>運動休閒</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2300,57 +2300,57 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>43.51</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>48.52</t>
+          <t>25.47</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>15.95%</t>
+          <t>18.57%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1.80%</t>
+          <t>11.72%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>25.49</t>
+          <t>19.86</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>2747</t>
+          <t>97266</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>厚膜電阻40.49%、金屬板電阻31.67%、薄膜電阻27.33%、其他0.50% (2024年)</t>
+          <t>運動休閒鞋類100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>天二科技-電子零組件業-上市</t>
+          <t>來億-KY-運動休閒-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>16.55</t>
+          <t>97.84</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 被動元件 - 電阻器</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6550</t>
+          <t>6834</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-3.87</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1138.614</t>
+          <t>2471.129</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1.73</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>12.99</t>
+          <t>22.45</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>30.85</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-1.21</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2437,57 +2437,57 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-2.29</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>-1.38</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>258.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2522,17 +2522,17 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-63251539.0</t>
+          <t>120031823.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>北極星藥業-KY</t>
+          <t>天二科技</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2542,57 +2542,57 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>53.36</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>-93.37%</t>
+          <t>15.95%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>-2,339.21%</t>
+          <t>1.80%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>37.94</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>28538</t>
+          <t>3021</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>勞務52.40%、委託生產藥品及製造43.94%、其他營業收入3.67% (2024年)</t>
+          <t>厚膜電阻40.49%、金屬板電阻31.67%、薄膜電阻27.33%、其他0.50% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>北極星藥業-KY-生技醫療業-上市</t>
+          <t>天二科技-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>16.55</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2602,12 +2602,12 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 製藥 - 中、西藥製劑** 再生醫療 - 臨床實驗、移植技術、疾病治療</t>
+          <t>** 被動元件 - 電阻器</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6415</t>
+          <t>6560</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-4.81</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3077.565</t>
+          <t>156.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>-3.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>415.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,32 +2669,32 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>5180</t>
+          <t>520</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2704,37 +2704,37 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-3.83</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>104.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2754,87 +2754,87 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-4693866151.0</t>
+          <t>5069.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>矽力*-KY</t>
+          <t>欣普羅</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>70.47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>55.38%</t>
+          <t>40.47%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>18.07%</t>
+          <t>-16.85%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>141.67</t>
+          <t>75.24</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>161365</t>
+          <t>968</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>積體電路(IC)99.45%、勞務0.55% (2024年)</t>
+          <t>攝影機92.58%、其他7.42% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>矽力*-KY-半導體業-上市</t>
+          <t>欣普羅-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>91.01</t>
+          <t>17.26</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 半導體 - LED驅動IC、光源管理IC、電源管理IC</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6165</t>
+          <t>6415</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2333.201</t>
+          <t>3077.565</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>28.43</t>
+          <t>27.15</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>415.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,72 +2911,72 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4659</t>
+          <t>7512</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-5.24</t>
+          <t>-3.11</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>-3.83</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2991,32 +2991,32 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-246585330.0</t>
+          <t>-4693866151.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>浪凡</t>
+          <t>矽力*-KY</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>數位雲端</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -3026,57 +3026,57 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>52.35</t>
+          <t>70.22</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>25.57%</t>
+          <t>55.38%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1.84%</t>
+          <t>18.07%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>35.05</t>
+          <t>143.66</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>4152</t>
+          <t>160784</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>直播平台營運99.63%、商品銷售0.37% (2024年)</t>
+          <t>積體電路(IC)99.45%、勞務0.55% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>浪凡-數位雲端-上市</t>
+          <t>矽力*-KY-半導體業-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>數位雲端右上</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>18.63</t>
+          <t>91.01</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 連接器 - 連接器設計、組裝及製造</t>
+          <t>** 半導體 - LED驅動IC、光源管理IC、電源管理IC</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6142</t>
+          <t>6165</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>239.169</t>
+          <t>2333.201</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,142 +3123,142 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>28.43</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>3904</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-5.46</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>589</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>-2.11</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>-99.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>-9.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-6283225.0</t>
+          <t>-246585330.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>友勁</t>
+          <t>浪凡</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>數位雲端</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3268,57 +3268,57 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52.06</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>9.25%</t>
+          <t>25.57%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>-15.44%</t>
+          <t>1.84%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>98.78</t>
+          <t>35.38</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>4129</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>有線通訊產品85.30%、無線通訊產品11.39%、維修及其他3.31% (2024年)</t>
+          <t>直播平台營運99.63%、商品銷售0.37% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>友勁-通信網路業-上市</t>
+          <t>浪凡-數位雲端-上市</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>數位雲端右上</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)</t>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6136</t>
+          <t>6142</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>698.883</t>
+          <t>239.169</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,27 +3365,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>24.3</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3395,107 +3395,107 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>985</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>22385859.0</t>
+          <t>-6283225.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>富爾特</t>
+          <t>友勁</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -3510,57 +3510,57 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>27.67</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>20.77%</t>
+          <t>9.25%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>-5.76%</t>
+          <t>-15.44%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>98.78</t>
+          <t>100.82</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2877</t>
+          <t>2044</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>通信服務,娛樂服務,網路行銷98.91%、其他1.09% (2024年)</t>
+          <t>有線通訊產品85.30%、無線通訊產品11.39%、維修及其他3.31% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>富爾特-通信網路業-上市</t>
+          <t>友勁-通信網路業-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>30.17</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3570,12 +3570,12 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 通信網路 - 電信服務業</t>
+          <t>** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6005</t>
+          <t>6136</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11272.961</t>
+          <t>698.883</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,27 +3607,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>24.80</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>25.8</t>
+          <t>24.3</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3637,57 +3637,57 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>8705</t>
+          <t>522</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3712,37 +3712,37 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>266994595.0</t>
+          <t>22385859.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>群益證</t>
+          <t>富爾特</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3752,57 +3752,57 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>11.98</t>
+          <t>27.61</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>67.23%</t>
+          <t>20.77%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>21.70%</t>
+          <t>-5.76%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>100.82</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>58506</t>
+          <t>2871</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>經紀手續費41.57%、營業證券出售損益38.12%、利息收入22.27%、股利收入8.24%、借券3.53%、期貨佣金1.86%、發行認購(售)權證淨損益1.47%、股務代理0.99%、承銷業務0.75%、財富管理0.60%、透過其他綜合損益按公允價值0.44%、顧問0.14%、經理費0.05%、借貸手續費0.03% (2024年)</t>
+          <t>通信服務,娛樂服務,網路行銷98.91%、其他1.09% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>群益證-金融保險-上市</t>
+          <t>富爾特-通信網路業-上市</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>19.47</t>
+          <t>30.17</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 金融 - 證券業</t>
+          <t>** 通信網路 - 電信服務業</t>
         </is>
       </c>
     </row>
@@ -3829,17 +3829,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>6005</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5378.941</t>
+          <t>11272.961</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,27 +3849,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>24.80</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>23.9</t>
+          <t>25.8</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3879,72 +3879,72 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>3234</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>-99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3959,27 +3959,27 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>-59968445.0</t>
+          <t>266994595.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>群益證</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -3994,57 +3994,57 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>18.93</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>67.23%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21.70%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>363097</t>
+          <t>58397</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>公平價值變動之金融資產與金50.47%、利息淨收益45.84%、手續費及佣金16.83%、保險業務8.02%、透過其他綜合損益按公允價值4.53%、其他利息以外淨收益0.45%、投資性不動產0.13%、採用覆蓋法重分類損益0.12%、資產減損迴轉利益(減損損失)0.05%、權益法投資收益-關聯和合營公0.02% (2024年)</t>
+          <t>經紀手續費41.57%、營業證券出售損益38.12%、利息收入22.27%、股利收入8.24%、借券3.53%、期貨佣金1.86%、發行認購(售)權證淨損益1.47%、股務代理0.99%、承銷業務0.75%、財富管理0.60%、透過其他綜合損益按公允價值0.44%、顧問0.14%、經理費0.05%、借貸手續費0.03% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>合庫金-金融保險-上市</t>
+          <t>群益證-金融保險-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>16.69</t>
+          <t>19.47</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 金融 - 證券業</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6990.222</t>
+          <t>5378.941</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4091,137 +4091,137 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-0.63</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>6593</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-0.84</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
           <t>0.32</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>10.59</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>47.45</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>-1.82</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>5306</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>502187992.0</t>
+          <t>-59968445.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -4236,17 +4236,17 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>16.76</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
@@ -4261,32 +4261,32 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>226551</t>
+          <t>361575</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>公平價值變動之金融資產與金50.47%、利息淨收益45.84%、手續費及佣金16.83%、保險業務8.02%、透過其他綜合損益按公允價值4.53%、其他利息以外淨收益0.45%、投資性不動產0.13%、採用覆蓋法重分類損益0.12%、資產減損迴轉利益(減損損失)0.05%、權益法投資收益-關聯和合營公0.02% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>合庫金-金融保險-上市</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>16.69</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4363,17 +4363,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>73</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2280</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -4383,12 +4383,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>9.22</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>28.62</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>187082</t>
+          <t>191276</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -4605,17 +4605,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>43</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3095</t>
+          <t>6057</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -4625,12 +4625,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>-7.66</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
@@ -4745,12 +4745,12 @@
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>44.61</t>
+          <t>44.82</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>10753</t>
+          <t>10851</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>82.32</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4847,17 +4847,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>41</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>10451</t>
+          <t>13318</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4867,12 +4867,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-9.16</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>24.73</t>
+          <t>24.18</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
@@ -4987,12 +4987,12 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>29.57</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>6070</t>
+          <t>5936</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -5039,17 +5039,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4939</t>
+          <t>5481</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-2.44</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>306.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5059,142 +5059,142 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>28.6</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>-0.50</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>20.15</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>521</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>36.0</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>1513.0</t>
+          <t>44176.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>亞電</t>
+          <t>新華</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -5204,57 +5204,57 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>106.32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>16.31%</t>
+          <t>38.51%</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-45.33%</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>50.09</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>2121</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>軟板材料100.00% (2024年)</t>
+          <t>教材38.20%、權利金收入27.49%、租賃23.40%、教育服務6.22%、其他4.70% (2024年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>亞電-電子零組件業-上櫃</t>
+          <t>新華-其他-上櫃</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>15.77</t>
+          <t>18.54</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -5264,12 +5264,12 @@
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 銅箔基板</t>
+          <t>** 文化創意業 - 其他</t>
         </is>
       </c>
     </row>
@@ -5281,17 +5281,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4923</t>
+          <t>5210</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>-5.58</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>622.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5301,114 +5301,114 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-3.66</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>13.33</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>31.25</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>15.99</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>1424</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>-1.09</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>-1.68</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>-65.0</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB21" t="inlineStr">
         <is>
           <t>2025-04-17</t>
@@ -5416,27 +5416,27 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2453.0</t>
+          <t>-82351.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>力士</t>
+          <t>寶碩</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
@@ -5461,42 +5461,42 @@
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>22.89%</t>
+          <t>72.98%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>-15.99%</t>
+          <t>40.38%</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>59.45</t>
+          <t>27.76</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>2186</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>溝槽式半場效電晶體(Trench 62.91%、Wafer26.65%、靜電防護二極體(ESD)7.60%、整流二極體1.53%、晶體管1.31% (2024年)</t>
+          <t>系統整合35.93%、維護服務34.05%、資訊傳輸24.42%、營業-投資3.34%、其他2.26% (2024年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>力士-半導體業-上櫃</t>
+          <t>寶碩-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>17.55</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -5506,12 +5506,12 @@
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>** 半導體 - 電源管理IC</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務** 太陽能產業 - 太陽能發電設備/系統及系統工程</t>
         </is>
       </c>
     </row>
@@ -5523,17 +5523,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>4923</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-1.78</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23443.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5543,17 +5543,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-8.75</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>35.95</t>
+          <t>31.25</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5573,72 +5573,72 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>17.26</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>5804</t>
+          <t>1380</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>-11.77</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -5648,37 +5648,37 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>-47153.0</t>
+          <t>2453.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>鑫聯大投控</t>
+          <t>力士</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -5688,57 +5688,57 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>17.88</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>4.94%</t>
+          <t>22.89%</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>-15.99%</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>32.5</t>
+          <t>61.57</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>5456</t>
+          <t>1137</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>電腦,零組件及週邊設備99.30%、其他0.70% (2024年)</t>
+          <t>溝槽式半場效電晶體(Trench 62.91%、Wafer26.65%、靜電防護二極體(ESD)7.60%、整流二極體1.53%、晶體管1.31% (2024年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
+          <t>力士-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>半導體業右下</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>23.26</t>
+          <t>17.55</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 中央處理器、晶片組、面板、顯示器模組、記憶體、主機板、機殼、電源供應器、網路卡、電池、散熱片、風扇馬達、散熱模組、輸出入模組/介面卡、顯示卡、硬碟機、光碟機、磁碟儲存系統、BIOS(嵌入式軟體)、筆記型電腦、桌上型電腦、工業電腦、精簡型電腦、伺服器、其他電腦及週邊設備、隨身碟、記憶卡讀卡機、多功能視訊卡、光學鏡片、鏡頭、光碟片、連接線、機構樞紐、金屬、塑膠模具、印表機、傳真機、掃瞄器、多功能事務機、投影機、安全監控系統、其他電腦及週邊設備之零組件</t>
+          <t>** 半導體 - 電源管理IC</t>
         </is>
       </c>
     </row>
@@ -5765,17 +5765,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3686</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>-1.78</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>349.831</t>
+          <t>23443.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5785,27 +5785,27 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>15.36</t>
+          <t>-8.75</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>15.4</t>
+          <t>35.95</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5815,32 +5815,32 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>24.71</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -5850,137 +5850,137 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>2315662.0</t>
+          <t>-47153.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>達能</t>
+          <t>鑫聯大投控</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19.65</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>-0.87%</t>
+          <t>4.94%</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>-30.43%</t>
+          <t>1.78%</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>141.67</t>
+          <t>32.88</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>1247</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>商品銷售100.00% (2024年)</t>
+          <t>電腦,零組件及週邊設備99.30%、其他0.70% (2024年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>達能-半導體業-上市</t>
+          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>9.16</t>
+          <t>23.26</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>** 太陽能產業 - 矽晶圓/矽晶片</t>
+          <t>** 電腦及週邊設備 - 中央處理器、晶片組、面板、顯示器模組、記憶體、主機板、機殼、電源供應器、網路卡、電池、散熱片、風扇馬達、散熱模組、輸出入模組/介面卡、顯示卡、硬碟機、光碟機、磁碟儲存系統、BIOS(嵌入式軟體)、筆記型電腦、桌上型電腦、工業電腦、精簡型電腦、伺服器、其他電腦及週邊設備、隨身碟、記憶卡讀卡機、多功能視訊卡、光學鏡片、鏡頭、光碟片、連接線、機構樞紐、金屬、塑膠模具、印表機、傳真機、掃瞄器、多功能事務機、投影機、安全監控系統、其他電腦及週邊設備之零組件</t>
         </is>
       </c>
     </row>
@@ -6057,17 +6057,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>9479</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-9.14</t>
+          <t>-1.87</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>79.55</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>29.57</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>5696</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -6249,17 +6249,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>3615</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3122.0</t>
+          <t>684.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -6269,142 +6269,142 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>12.61</t>
+          <t>-3.13</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>-1.35</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>61.6</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>10.85</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>11249</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>-0.82</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>-5.10</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>-5.53</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>77219.0</t>
+          <t>-12557.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>友威科</t>
+          <t>安可</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -6414,57 +6414,57 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>40.63%</t>
+          <t>15.57%</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>12.78%</t>
+          <t>-4.57%</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>75.24</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>2727</t>
+          <t>1630</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>設備及售後服務85.48%、客戶委託代工(OEM)14.52% (2024年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>友威科-其他電子業-上櫃</t>
+          <t>安可-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>其他電子業平</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>27.27</t>
+          <t>33.01</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 平面顯示器 - ITO導電基板** 觸控面板 - ITO導電玻璃** LED照明產業 - 藍寶石晶圓/晶片</t>
         </is>
       </c>
     </row>
@@ -6491,17 +6491,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>714.0</t>
+          <t>3122.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6511,27 +6511,27 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>12.61</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>33.79</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2235.0</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -6541,57 +6541,57 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>6741</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>46.82</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-4.93</t>
+          <t>-2.65</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-99.87</t>
+          <t>-5.10</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-136.69</t>
+          <t>-5.53</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -6601,52 +6601,52 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>-1422571.0</t>
+          <t>77219.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>友威科</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -6656,57 +6656,57 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>13.54</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>99.1</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>40.63%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>55.99%</t>
+          <t>12.78%</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>59.45</t>
+          <t>29.57</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>181807</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>權利金收入68.55%、技術服務31.45% (2024年)</t>
+          <t>設備及售後服務85.48%、客戶委託代工(OEM)14.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>力旺-半導體業-上櫃</t>
+          <t>友威科-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>其他電子業平</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>47.74</t>
+          <t>27.27</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -6716,12 +6716,12 @@
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>** 半導體 - IP設計/IC設計代工服務</t>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -6733,17 +6733,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>-5.4</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7452.0</t>
+          <t>714.0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6753,27 +6753,27 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>59.62</t>
+          <t>33.79</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>213.0</t>
+          <t>2235.0</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -6783,82 +6783,82 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>17.12</t>
+          <t>16.45</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>7674</t>
+          <t>905</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>46.82</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>-99.87</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>-136.69</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -6868,27 +6868,27 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>5816912.0</t>
+          <t>-1422571.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>大綜</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6898,57 +6898,57 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>41.05</t>
+          <t>13.54</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>21.52</t>
+          <t>108.87</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>15.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>55.99%</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>27.07</t>
+          <t>61.57</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>10025</t>
+          <t>199726</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>商品銷售89.73%、服務合約6.40%、建造合同3.87% (2024年)</t>
+          <t>權利金收入68.55%、技術服務31.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>大綜-資訊服務業-上櫃</t>
+          <t>力旺-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>39.84</t>
+          <t>47.74</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -6958,12 +6958,12 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 伺服器、其他電腦及週邊設備之零組件** 軟體服務 - 系統整合服務、通路經銷</t>
+          <t>** 半導體 - IP設計/IC設計代工服務</t>
         </is>
       </c>
     </row>
@@ -6975,17 +6975,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3051</t>
+          <t>3466</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>-4.15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>868.525</t>
+          <t>1131.0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6995,202 +6995,202 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>-3.50</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>13.08</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>38.5</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>-2.78</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>-3.96</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>-4.34</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>28.5</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>601</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>-0.90</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>-1.17</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>30099561.0</t>
+          <t>-23163.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>力特</t>
+          <t>德晉</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>14.28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>39.20%</t>
+          <t>13.85%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>21.61%</t>
+          <t>-77.81%</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>72.34</t>
+          <t>66.91</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>4876</t>
+          <t>3081</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>電子偏光板及其他光學材料100.00% (2024年)</t>
+          <t>機上盒及零組件84.11%、其他電子產品5.51%、儲能設備及零組件5.19%、再生能源(RE)5.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>力特-光電業-上市</t>
+          <t>德晉-通信網路業-上櫃</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>11.52</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -7200,12 +7200,12 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>** 平面顯示器 - 其他零組件</t>
+          <t>** 通信網路 - 無線通訊設備(如行動電話、衛星定位系統、衛星通訊設備、微波通訊設備、數位機上盒)</t>
         </is>
       </c>
     </row>
@@ -7217,17 +7217,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1354.699</t>
+          <t>7452.0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7237,114 +7237,114 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>23.99</t>
+          <t>59.62</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>1589</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>254.0</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>1021</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>-1.17</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>-1.89</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB29" t="inlineStr">
         <is>
           <t>2025-04-16</t>
@@ -7352,87 +7352,87 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>-311467728.0</t>
+          <t>5816912.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>統一超</t>
+          <t>大綜</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>貿易百貨</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>82.86</t>
+          <t>41.05</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>23.33</t>
+          <t>23.66</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>34.39%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>3.43%</t>
+          <t>8.92%</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>28.54</t>
+          <t>27.76</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>269262</t>
+          <t>11019</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>便利商店(含海外子公司)77.94%、日用百貨買賣7.53%、餐飲業5.11%、宅配貨運3.98%、加油站3.11%、其他1.52%、物流0.81% (2024年)</t>
+          <t>商品銷售89.73%、服務合約6.40%、建造合同3.87% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>統一超-貿易百貨-上市</t>
+          <t>大綜-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>40.67</t>
+          <t>39.84</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7442,12 +7442,12 @@
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>** 貿易百貨 - 零售通路</t>
+          <t>** 電腦及週邊設備 - 伺服器、其他電腦及週邊設備之零組件** 軟體服務 - 系統整合服務、通路經銷</t>
         </is>
       </c>
     </row>
@@ -7459,17 +7459,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2633</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>7043.806</t>
+          <t>1354.699</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7479,17 +7479,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>35.68</t>
+          <t>23.99</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>26.95</t>
+          <t>254.0</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -7509,112 +7509,112 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>3493</t>
+          <t>893</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>-99.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>54937660.0</t>
+          <t>-311467728.0</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>台灣高鐵</t>
+          <t>統一超</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>貿易百貨</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -7624,57 +7624,57 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>82.86</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>23.22</t>
+          <t>23.2</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>43.12%</t>
+          <t>34.39%</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>39.47%</t>
+          <t>3.43%</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>16.02</t>
+          <t>28.53</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>70175</t>
+          <t>267703</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>鐵路運輸96.36%、其他營業收入3.64% (2024年)</t>
+          <t>便利商店(含海外子公司)77.94%、日用百貨買賣7.53%、餐飲業5.11%、宅配貨運3.98%、加油站3.11%、其他1.52%、物流0.81% (2024年)</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>台灣高鐵-航運業-上市</t>
+          <t>統一超-貿易百貨-上市</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>40.67</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
@@ -7684,12 +7684,12 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 海陸空大眾運輸</t>
+          <t>** 貿易百貨 - 零售通路</t>
         </is>
       </c>
     </row>
@@ -7701,17 +7701,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>2633</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-2.71</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2265.009</t>
+          <t>7043.806</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7721,27 +7721,27 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>46.89</t>
+          <t>35.68</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>62.4</t>
+          <t>26.95</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -7751,112 +7751,112 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1333</t>
+          <t>4843</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-1.50</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>37.0</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>39380232.0</t>
+          <t>54937660.0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>櫻花建</t>
+          <t>台灣高鐵</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
@@ -7866,57 +7866,57 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>22.18</t>
+          <t>23.13</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>46.98%</t>
+          <t>43.12%</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>42.67%</t>
+          <t>39.47%</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>44.61</t>
+          <t>16.08</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>62837</t>
+          <t>69913</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+          <t>鐵路運輸96.36%、其他營業收入3.64% (2024年)</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>櫻花建-建材營造-上市</t>
+          <t>台灣高鐵-航運業-上市</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr">
@@ -7926,12 +7926,12 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 交通運輸及航運 - 海陸空大眾運輸</t>
         </is>
       </c>
     </row>
@@ -7943,17 +7943,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-2.71</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3309.924</t>
+          <t>2265.009</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7963,27 +7963,27 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-6.38</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>23.61</t>
+          <t>46.89</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>101.5</t>
+          <t>62.4</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -7993,72 +7993,72 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2622</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-8.78</t>
+          <t>-4.40</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -8068,37 +8068,37 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>-2270757110.0</t>
+          <t>39380232.0</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>冠西電</t>
+          <t>櫻花建</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
@@ -8108,57 +8108,57 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21.54</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>6.56%</t>
+          <t>46.98%</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>-25.76%</t>
+          <t>42.67%</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>72.34</t>
+          <t>44.82</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>17574</t>
+          <t>61047</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>商品銷售95.62%、能源及材料4.38% (2024年)</t>
+          <t>房地銷售99.91%、其他0.09% (2024年)</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>冠西電-光電業-上市</t>
+          <t>櫻花建-建材營造-上市</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>** 通信網路 - 主/被動元件** 其他 - 環保潔能服務產業、其他</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
@@ -8185,17 +8185,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>296891.279</t>
+          <t>3309.924</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -8205,142 +8205,142 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-1.69</t>
+          <t>-6.38</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>23.61</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>101.5</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1766</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>-5.85</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>39.35</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>-5.21</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>353</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>133305</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>-4.26</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>-0.69</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>-0.93</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>23395002628.0</t>
+          <t>-2270757110.0</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>冠西電</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
@@ -8365,42 +8365,42 @@
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>-10.56%</t>
+          <t>6.56%</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>-42.76%</t>
+          <t>-25.76%</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>141.67</t>
+          <t>74.13</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>115889</t>
+          <t>17574</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>動態隨機存取記憶體(DRAM)99.69%、其他0.31% (2024年)</t>
+          <t>商品銷售95.62%、能源及材料4.38% (2024年)</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>南亞科-半導體業-上市</t>
+          <t>冠西電-光電業-上市</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
         <is>
-          <t>53.27</t>
+          <t>11.51</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr">
@@ -8410,12 +8410,12 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 記憶體** 通信網路 - 記憶體** 半導體 - 記憶體IC、晶圓製造、DRAM製造</t>
+          <t>** 通信網路 - 主/被動元件** 其他 - 環保潔能服務產業、其他</t>
         </is>
       </c>
     </row>
@@ -8427,17 +8427,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>2440</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2746.133</t>
+          <t>697.744</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -8447,27 +8447,27 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10.80</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>14.55</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -8477,7 +8477,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -8487,62 +8487,62 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>975</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-1.21</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -8552,37 +8552,37 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>23316196.0</t>
+          <t>-41248420.0</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>國碩</t>
+          <t>太空梭</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
@@ -8607,42 +8607,42 @@
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>-1.39%</t>
+          <t>4.01%</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>-33.29%</t>
+          <t>-3.02%</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>72.34</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>4334</t>
+          <t>2135</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>導電漿85.53%、其他7.20%、電力3.87%、工程2.60%、太陽能矽輔料0.80% (2024年)</t>
+          <t>銅材料91.74%、C產品線8.26% (2024年)</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>國碩-光電業-上市</t>
+          <t>太空梭-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>光電業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr">
@@ -8652,12 +8652,12 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>** 太陽能產業 - 太陽能發電設備/系統及系統工程、太陽能電廠</t>
+          <t>** 電腦及週邊設備 - 連接線</t>
         </is>
       </c>
     </row>
@@ -8669,17 +8669,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-3.73</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>20203.432</t>
+          <t>296891.279</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -8689,17 +8689,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-2.68</t>
+          <t>-1.69</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>18.14</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>223.5</t>
+          <t>39.35</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -8719,112 +8719,112 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>-6.35</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>348</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>14352</t>
+          <t>115439</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-2.61</t>
+          <t>-4.73</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>-6.29</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>-8.92</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>121.0</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>1594499080.0</t>
+          <t>23395002628.0</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
@@ -8834,57 +8834,57 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>108.27</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>14.85</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>7.45%</t>
+          <t>-10.56%</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>3.63%</t>
+          <t>-42.76%</t>
         </is>
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>88.64</t>
+          <t>143.66</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>888404</t>
+          <t>114649</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>電子產品99.68%、其他產品0.32% (2024年)</t>
+          <t>動態隨機存取記憶體(DRAM)99.69%、其他0.31% (2024年)</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>廣達-電腦及週邊設備業-上市</t>
+          <t>南亞科-半導體業-上市</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>半導體業右下</t>
         </is>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
-          <t>57.67</t>
+          <t>53.27</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr">
@@ -8894,12 +8894,12 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 筆記型電腦、其他電腦及週邊設備之零組件** 雲端運算 - 電腦設備、伺服器、儲存、網路** 運動科技 - 穿戴式裝置</t>
+          <t>** 電腦及週邊設備 - 記憶體** 通信網路 - 記憶體** 半導體 - 記憶體IC、晶圓製造、DRAM製造</t>
         </is>
       </c>
     </row>
@@ -8911,17 +8911,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1191.315</t>
+          <t>2746.133</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -8931,27 +8931,27 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>10.80</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>66.8</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -8961,72 +8961,72 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>-3.20</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -9036,37 +9036,37 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>-71654220.0</t>
+          <t>23316196.0</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>中華</t>
+          <t>國碩</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
@@ -9076,57 +9076,57 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>12.68</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>7.48%</t>
+          <t>-1.39%</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>-1.97%</t>
+          <t>-33.29%</t>
         </is>
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>18.59</t>
+          <t>74.13</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>36871</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>成車79.53%、零件17.25%、勞務2.77%、其他0.45% (2024年)</t>
+          <t>導電漿85.53%、其他7.20%、電力3.87%、工程2.60%、太陽能矽輔料0.80% (2024年)</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>中華-汽車工業-上市</t>
+          <t>國碩-光電業-上市</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>光電業右下</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
-          <t>67.02</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>** 汽車 - 整車組裝、修理及技術服務、銷售、進出口業務</t>
+          <t>** 太陽能產業 - 太陽能發電設備/系統及系統工程、太陽能電廠</t>
         </is>
       </c>
     </row>
@@ -9153,17 +9153,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2101</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-3.73</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>844.316</t>
+          <t>20203.432</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9173,27 +9173,27 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>-2.68</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>18.14</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>223.5</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -9203,32 +9203,32 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>301</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>20381</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-1.39</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -9238,47 +9238,47 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>-1.85</t>
+          <t>-6.29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-8.92</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -9288,27 +9288,27 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>-142846183.0</t>
+          <t>1594499080.0</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>南港</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>橡膠工業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
@@ -9318,57 +9318,57 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>108.27</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>15.17</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>20.69%</t>
+          <t>7.45%</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>4.53%</t>
+          <t>3.63%</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>18.98</t>
+          <t>91.06</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>29938</t>
+          <t>907717</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>輪胎59.11%、房地產40.89% (2024年)</t>
+          <t>電子產品99.68%、其他產品0.32% (2024年)</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>南港-橡膠工業-上市</t>
+          <t>廣達-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS37" t="inlineStr">
         <is>
-          <t>16.27</t>
+          <t>57.67</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="AV37" t="inlineStr">
         <is>
-          <t>** 汽車 - 輪胎</t>
+          <t>** 電腦及週邊設備 - 筆記型電腦、其他電腦及週邊設備之零組件** 雲端運算 - 電腦設備、伺服器、儲存、網路** 運動科技 - 穿戴式裝置</t>
         </is>
       </c>
     </row>
@@ -9395,17 +9395,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>512.067</t>
+          <t>1191.315</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9415,142 +9415,142 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>66.8</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>1075</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>-3.20</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>17.3</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>634</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>-0.71</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>-1.32</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>-1.39</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>-11.0</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>8764572.0</t>
+          <t>-71654220.0</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>東和</t>
+          <t>中華</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
@@ -9560,57 +9560,57 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>12.68</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>12.93%</t>
+          <t>7.48%</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>-7.40%</t>
+          <t>-1.97%</t>
         </is>
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>56.7</t>
+          <t>18.93</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>4004</t>
+          <t>37591</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>特殊紗53.70%、租賃24.30%、一般紗21.59%、其他0.41% (2024年)</t>
+          <t>成車79.53%、零件17.25%、勞務2.77%、其他0.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>東和-紡織纖維-上市</t>
+          <t>中華-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="AS38" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>67.02</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="AV38" t="inlineStr">
         <is>
-          <t>** 紡織 - 紡紗</t>
+          <t>** 汽車 - 整車組裝、修理及技術服務、銷售、進出口業務</t>
         </is>
       </c>
     </row>
@@ -9637,17 +9637,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1312</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10016.505</t>
+          <t>844.316</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9657,107 +9657,107 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>35.6</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>-1.52</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>-1.85</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>-2.12</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>11.7</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>-1.74</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>8667</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>-5.22</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>-0.16</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -9767,32 +9767,32 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>137692041.0</t>
+          <t>-142846183.0</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>國喬</t>
+          <t>南港</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>橡膠工業</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
@@ -9802,57 +9802,57 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>2.76%</t>
+          <t>20.69%</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>-17.23%</t>
+          <t>4.53%</t>
         </is>
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>19.04</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>12726</t>
+          <t>30105</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>石化產品44.51%、塑膠製品26.93%、尼龍7.16%、廣告6.30%、包裝材料5.14%、視訊服務4.13%、汽電3.15%、授權及其他服務等1.34%、氫氣0.95%、百貨0.35%、出售試車品0.04% (2024年)</t>
+          <t>輪胎59.11%、房地產40.89% (2024年)</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>國喬-塑膠工業-上市</t>
+          <t>南港-橡膠工業-上市</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>塑膠工業右下</t>
+          <t>橡膠工業右下</t>
         </is>
       </c>
       <c r="AS39" t="inlineStr">
         <is>
-          <t>29.6</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr">
@@ -9862,12 +9862,12 @@
       </c>
       <c r="AU39" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品</t>
+          <t>** 汽車 - 輪胎</t>
         </is>
       </c>
     </row>
@@ -9879,235 +9879,719 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1930.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1629</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>-9.0</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>-11219138.0</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>燁輝</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>6.77%</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>-1.37%</t>
+        </is>
+      </c>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>35.69</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>31193</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>鋼捲及鋼管80.54%、其他9.42%、線材8.90%、工程1.14% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>燁輝-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>鋼鐵工業平</t>
+        </is>
+      </c>
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV40" t="inlineStr">
+        <is>
+          <t>** 鋼鐵 - 冷熱軋鋼板捲</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1312</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10016.505</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>11.7</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>5946</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>-1.70</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>137692041.0</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>國喬</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>2.76%</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>-17.23%</t>
+        </is>
+      </c>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>12892</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>石化產品44.51%、塑膠製品26.93%、尼龍7.16%、廣告6.30%、包裝材料5.14%、視訊服務4.13%、汽電3.15%、授權及其他服務等1.34%、氫氣0.95%、百貨0.35%、出售試車品0.04% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>國喬-塑膠工業-上市</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>塑膠工業右下</t>
+        </is>
+      </c>
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>29.6</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV41" t="inlineStr">
+        <is>
+          <t>** 石化及塑橡膠 - 塑膠製品</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>1210</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>1037.942</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>0.35</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>0.77</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>16.57</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>1.19</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>58.7</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>3861</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
         <is>
           <t>1.94</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>0.36</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>0.57</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>0.54</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>0.34</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t>95.0</t>
         </is>
       </c>
-      <c r="X40" t="inlineStr">
+      <c r="X42" t="inlineStr">
         <is>
           <t>27.0</t>
         </is>
       </c>
-      <c r="Y40" t="inlineStr">
+      <c r="Y42" t="inlineStr">
         <is>
           <t>19.0</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
+      <c r="Z42" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA40" t="inlineStr">
+      <c r="AA42" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
+      <c r="AB42" t="inlineStr">
         <is>
           <t>2025-04-18</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>2025-04-25</t>
-        </is>
-      </c>
-      <c r="AD40" t="inlineStr">
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="AE40" t="inlineStr">
+      <c r="AE42" t="inlineStr">
         <is>
           <t>-18352441.0</t>
         </is>
       </c>
-      <c r="AF40" t="inlineStr">
+      <c r="AF42" t="inlineStr">
         <is>
           <t>大成</t>
         </is>
       </c>
-      <c r="AG40" t="inlineStr">
+      <c r="AG42" t="inlineStr">
         <is>
           <t>食品工業</t>
         </is>
       </c>
-      <c r="AH40" t="inlineStr">
+      <c r="AH42" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI40" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
         <is>
           <t>31.51</t>
         </is>
       </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>14.39</t>
-        </is>
-      </c>
-      <c r="AL40" t="inlineStr">
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="AL42" t="inlineStr">
         <is>
           <t>14.74%</t>
         </is>
       </c>
-      <c r="AM40" t="inlineStr">
+      <c r="AM42" t="inlineStr">
         <is>
           <t>5.74%</t>
         </is>
       </c>
-      <c r="AN40" t="inlineStr">
-        <is>
-          <t>43.19</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>53686</t>
-        </is>
-      </c>
-      <c r="AP40" t="inlineStr">
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>43.23</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>53507</t>
+        </is>
+      </c>
+      <c r="AP42" t="inlineStr">
         <is>
           <t>飼料51.87%、消費食品18.76%、肉品17.75%、大宗油脂6.90%、其他4.72% (2024年)</t>
         </is>
       </c>
-      <c r="AQ40" t="inlineStr">
+      <c r="AQ42" t="inlineStr">
         <is>
           <t>大成-食品工業-上市</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AR42" t="inlineStr">
         <is>
           <t>食品工業右上</t>
         </is>
       </c>
-      <c r="AS40" t="inlineStr">
+      <c r="AS42" t="inlineStr">
         <is>
           <t>30.33</t>
         </is>
       </c>
-      <c r="AT40" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU40" t="inlineStr">
+      <c r="AU42" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AV40" t="inlineStr">
+      <c r="AV42" t="inlineStr">
         <is>
           <t>** 食品 - 原物料、加工食品、冷凍、罐頭、脫水、醃漬食品</t>
         </is>

--- a/Result/check3/2025-04-22.xlsx
+++ b/Result/check3/2025-04-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV40"/>
+  <dimension ref="A1:AV34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-6.98</t>
+          <t>-11.29</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>10004</t>
+          <t>3033</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.93</t>
+          <t>-5.32</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21.3</t>
+          <t>21.01</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3371</t>
+          <t>3240</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>1158</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.97</t>
+          <t>16.18</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>30.21</t>
+          <t>30.07</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>45255</t>
+          <t>45847</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-15.56</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>-2.03</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>13.41</t>
+          <t>13.24</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>42.29</t>
+          <t>41.99</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6238</t>
+          <t>6161</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6890</t>
+          <t>8039</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>775.236</t>
+          <t>1094.221</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>341.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-17.59</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2183</t>
+          <t>672</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-16.21</t>
+          <t>-1.69</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-21.86</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1539,32 +1539,32 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>794202545.0</t>
+          <t>-49069644.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>來億-KY</t>
+          <t>台虹</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>運動休閒</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1574,57 +1574,57 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>43.51</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>19.98</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>18.57%</t>
+          <t>18.74%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>11.72%</t>
+          <t>3.70%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>72326</t>
+          <t>10853</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>運動休閒鞋類100.00% (2024年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>來億-KY-運動休閒-上市</t>
+          <t>台虹-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>97.84</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>** 印刷電路板 - 銅箔基板</t>
         </is>
       </c>
     </row>
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>13.22</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1446</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>-6.16</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>54.61</t>
+          <t>55.55</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3092</t>
+          <t>3145</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6550</t>
+          <t>6625</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-3.87</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1138.614</t>
+          <t>104.863</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.73</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12.99</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,72 +1943,72 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>7.18</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>541</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-3.91</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>-1.33</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2023,32 +2023,32 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-63251539.0</t>
+          <t>6988831.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>北極星藥業-KY</t>
+          <t>必應</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2058,57 +2058,57 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.77</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>-93.37%</t>
+          <t>20.68%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>-2,339.21%</t>
+          <t>14.93%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>38.14</t>
+          <t>30.07</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>31125</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>勞務52.40%、委託生產藥品及製造43.94%、其他營業收入3.67% (2024年)</t>
+          <t>製作設計及硬體工程98.93%、設備出租0.76%、展演票券0.26%、其他0.05% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>北極星藥業-KY-生技醫療業-上市</t>
+          <t>必應-其他-上市</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>其他右下</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>20.44</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 製藥 - 中、西藥製劑** 再生醫療 - 臨床實驗、移植技術、疾病治療</t>
+          <t>** 文化創意業 - 流行音樂及文化內容產業</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6165</t>
+          <t>6550</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2333.201</t>
+          <t>1138.614</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>28.43</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,77 +2185,77 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3492</t>
+          <t>1919</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -2265,32 +2265,32 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-246585330.0</t>
+          <t>-63251539.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>浪凡</t>
+          <t>北極星藥業-KY</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>數位雲端</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2300,57 +2300,57 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>55.59</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>25.57%</t>
+          <t>-93.37%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1.84%</t>
+          <t>-2,339.21%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>35.69</t>
+          <t>38.79</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>4409</t>
+          <t>33899</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>直播平台營運99.63%、商品銷售0.37% (2024年)</t>
+          <t>勞務52.40%、委託生產藥品及製造43.94%、其他營業收入3.67% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>浪凡-數位雲端-上市</t>
+          <t>北極星藥業-KY-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>數位雲端右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>18.63</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 連接器 - 連接器設計、組裝及製造</t>
+          <t>** 製藥 - 中、西藥製劑** 再生醫療 - 臨床實驗、移植技術、疾病治療</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6005</t>
+          <t>6169</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11272.961</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>-2.45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>24.80</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>25.8</t>
+          <t>20.2</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,57 +2427,57 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4775</t>
+          <t>835</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2487,17 +2487,17 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -2512,87 +2512,87 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>266994595.0</t>
+          <t>2405.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>群益證</t>
+          <t>昱泉</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>11.87</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>67.23%</t>
+          <t>17.96%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21.70%</t>
+          <t>-206.75%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>110.0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>57963</t>
+          <t>567</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>經紀手續費41.57%、營業證券出售損益38.12%、利息收入22.27%、股利收入8.24%、借券3.53%、期貨佣金1.86%、發行認購(售)權證淨損益1.47%、股務代理0.99%、承銷業務0.75%、財富管理0.60%、透過其他綜合損益按公允價值0.44%、顧問0.14%、經理費0.05%、借貸手續費0.03% (2024年)</t>
+          <t>遊戲及APP應用100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>群益證-金融保險-上市</t>
+          <t>昱泉-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>19.47</t>
+          <t>12.49</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 金融 - 證券業</t>
+          <t>** 休閒娛樂 - 線上遊戲業、設計開發、營運發行** 文化創意業 - 數位內容產業</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>6165</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5378.941</t>
+          <t>2333.201</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>20.98</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>23.9</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,77 +2669,77 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>15191</t>
+          <t>11122</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2749,32 +2749,32 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-59968445.0</t>
+          <t>-246585330.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>浪凡</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>數位雲端</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2784,57 +2784,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>19.72</t>
+          <t>55.98</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25.57%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.84%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>35.65</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>378322</t>
+          <t>4440</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>公平價值變動之金融資產與金50.47%、利息淨收益45.84%、手續費及佣金16.83%、保險業務8.02%、透過其他綜合損益按公允價值4.53%、其他利息以外淨收益0.45%、投資性不動產0.13%、採用覆蓋法重分類損益0.12%、資產減損迴轉利益(減損損失)0.05%、權益法投資收益-關聯和合營公0.02% (2024年)</t>
+          <t>直播平台營運99.63%、商品銷售0.37% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>合庫金-金融保險-上市</t>
+          <t>浪凡-數位雲端-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>數位雲端右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>16.69</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2844,12 +2844,12 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5871</t>
+          <t>6005</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5026.504</t>
+          <t>11272.961</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,142 +2881,142 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>24.80</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>6505</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-0.59</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>109.5</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>5268</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-2.84</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-3.09</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-841038245.0</t>
+          <t>266994595.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>中租-KY</t>
+          <t>群益證</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -3026,57 +3026,57 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>13.85</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>11.98</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>66.01%</t>
+          <t>67.23%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>22.62%</t>
+          <t>21.70%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>30.21</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>197988</t>
+          <t>58506</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>融資租賃利息收入31.26%、分期付款利息22.02%、其他利息12.15%、放款利息11.83%、其他營業收入8.08%、商品銷售7.96%、租賃6.70% (2024年)</t>
+          <t>經紀手續費41.57%、營業證券出售損益38.12%、利息收入22.27%、股利收入8.24%、借券3.53%、期貨佣金1.86%、發行認購(售)權證淨損益1.47%、股務代理0.99%、承銷業務0.75%、財富管理0.60%、透過其他綜合損益按公允價值0.44%、顧問0.14%、經理費0.05%、借貸手續費0.03% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>中租-KY-其他-上市</t>
+          <t>群益證-金融保險-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>其他右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>94.7</t>
+          <t>19.47</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3086,12 +3086,12 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 金融 - 租賃業** 太陽能產業 - 太陽能電廠</t>
+          <t>** 金融 - 證券業</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5531</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4941.892</t>
+          <t>5378.941</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>23.74</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10.85</t>
+          <t>23.9</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,77 +3153,77 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>82</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>11513</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
           <t>28.0</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>41.0</t>
-        </is>
-      </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -3233,32 +3233,32 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>32586833.0</t>
+          <t>-59968445.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>鄉林</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3268,57 +3268,57 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19.68</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>25.68%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>15.34%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>48.81</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>10802</t>
+          <t>377560</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>房地銷售85.05%、酒店13.66%、租賃1.05%、其他0.23% (2024年)</t>
+          <t>公平價值變動之金融資產與金50.47%、利息淨收益45.84%、手續費及佣金16.83%、保險業務8.02%、透過其他綜合損益按公允價值4.53%、其他利息以外淨收益0.45%、投資性不動產0.13%、採用覆蓋法重分類損益0.12%、資產減損迴轉利益(減損損失)0.05%、權益法投資收益-關聯和合營公0.02% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>鄉林-建材營造-上市</t>
+          <t>合庫金-金融保險-上市</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>16.69</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5490</t>
+          <t>5871</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>-1.38</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>284.0</t>
+          <t>5026.504</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,27 +3365,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>109.5</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3395,72 +3395,72 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>18.03</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>61</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>7567</t>
+          <t>5401</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-7.47</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-2.84</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>-3.09</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3475,92 +3475,92 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>6832.0</t>
+          <t>-841038245.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>同亨</t>
+          <t>中租-KY</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>13.85</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>28.01</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>46.02%</t>
+          <t>66.01%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>18.72%</t>
+          <t>22.62%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>32.46</t>
+          <t>30.07</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2639</t>
+          <t>197149</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>電子金融交易終端機58.68%、其他18.92%、交易資料安全保護設備14.86%、讀寫卡機7.54% (2024年)</t>
+          <t>融資租賃利息收入31.26%、分期付款利息22.02%、其他利息12.15%、放款利息11.83%、其他營業收入8.08%、商品銷售7.96%、租賃6.70% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>同亨-電腦及週邊設備業-上櫃</t>
+          <t>中租-KY-其他-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>其他右下</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>14.06</t>
+          <t>94.7</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3570,12 +3570,12 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦** 觸控面板 - 工業用設備</t>
+          <t>** 金融 - 租賃業** 太陽能產業 - 太陽能電廠</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5489</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10964.0</t>
+          <t>383.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,27 +3607,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>82.32</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3637,72 +3637,72 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>681</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3712,37 +3712,37 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>-299841.0</t>
+          <t>-5241.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>彩富</t>
+          <t>致和證</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>金融業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3752,57 +3752,57 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>24.31</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>38.43%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>30.47</t>
+          <t>14.17</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>5967</t>
+          <t>5323</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>安全監控系統91.23%、其他8.55%、機器視覺系統0.22% (2024年)</t>
+          <t>營業證券透過損益按公允價值27.87%、經紀手續費27.71%、證券出售損益24.42%、股利收入11.89%、利息收入7.69%、承銷業務0.21%、期貨佣金0.21% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>彩富-其他電子業-上櫃</t>
+          <t>致和證-金融業-上櫃</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>23.44</t>
+          <t>17.2</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 平面顯示器 - 生產製程及檢測設備</t>
+          <t>** 金融 - 證券業</t>
         </is>
       </c>
     </row>
@@ -3829,17 +3829,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5481</t>
+          <t>5531</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-2.44</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>306.0</t>
+          <t>4941.892</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,27 +3849,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>36.48</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>10.85</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3879,47 +3879,47 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-2.88</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1243</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-4.68</t>
+          <t>-2.25</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -3929,12 +3929,12 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -3944,12 +3944,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -3959,37 +3959,37 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>44176.0</t>
+          <t>32586833.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>新華</t>
+          <t>鄉林</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
@@ -4009,42 +4009,42 @@
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>38.51%</t>
+          <t>25.68%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>-45.33%</t>
+          <t>15.34%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>48.31</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>10851</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>教材38.20%、權利金收入27.49%、租賃23.40%、教育服務6.22%、其他4.70% (2024年)</t>
+          <t>房地銷售85.05%、酒店13.66%、租賃1.05%、其他0.23% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>新華-其他-上櫃</t>
+          <t>鄉林-建材營造-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>18.54</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4054,12 +4054,12 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 其他</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4946</t>
+          <t>5490</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>775.0</t>
+          <t>284.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4091,142 +4091,142 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>7.34</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>97.12</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>22.5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>5582</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-6.50</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>-0.79</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>-1.04</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>151.0</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>32.74</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>798</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>27.61</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>14.10</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>13.85</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>94.0</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>250914.0</t>
+          <t>6832.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>辣椒</t>
+          <t>同亨</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -4236,57 +4236,57 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27.45</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>20.94%</t>
+          <t>46.02%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>-95.59%</t>
+          <t>18.72%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>104.92</t>
+          <t>32.13</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>1754</t>
+          <t>2586</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>遊戲營運66.66%、商品銷售14.24%、餐飲13.84%、其他5.26% (2024年)</t>
+          <t>電子金融交易終端機58.68%、其他18.92%、交易資料安全保護設備14.86%、讀寫卡機7.54% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>辣椒-文化創意業-上櫃</t>
+          <t>同亨-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>14.06</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 營運發行</t>
+          <t>** 電腦及週邊設備 - 工業電腦** 觸控面板 - 工業用設備</t>
         </is>
       </c>
     </row>
@@ -4313,17 +4313,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>5489</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-1.78</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23443.0</t>
+          <t>10964.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4333,142 +4333,142 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-8.75</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>59.92</t>
+          <t>82.32</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>53.9</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>8680</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-6.06</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>35.95</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>22.52</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>1736</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>-0.96</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>41.0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>98</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>-47153.0</t>
+          <t>-299841.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>鑫聯大投控</t>
+          <t>彩富</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4478,57 +4478,57 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>19.09</t>
+          <t>24.6</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>4.94%</t>
+          <t>38.43%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>32.46</t>
+          <t>29.04</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>6039</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>電腦,零組件及週邊設備99.30%、其他0.70% (2024年)</t>
+          <t>安全監控系統91.23%、其他8.55%、機器視覺系統0.22% (2024年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
+          <t>彩富-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>23.26</t>
+          <t>23.44</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 中央處理器、晶片組、面板、顯示器模組、記憶體、主機板、機殼、電源供應器、網路卡、電池、散熱片、風扇馬達、散熱模組、輸出入模組/介面卡、顯示卡、硬碟機、光碟機、磁碟儲存系統、BIOS(嵌入式軟體)、筆記型電腦、桌上型電腦、工業電腦、精簡型電腦、伺服器、其他電腦及週邊設備、隨身碟、記憶卡讀卡機、多功能視訊卡、光學鏡片、鏡頭、光碟片、連接線、機構樞紐、金屬、塑膠模具、印表機、傳真機、掃瞄器、多功能事務機、投影機、安全監控系統、其他電腦及週邊設備之零組件</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 平面顯示器 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
@@ -4555,17 +4555,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3663</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10.22</t>
+          <t>-1.78</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1849.0</t>
+          <t>23443.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4575,27 +4575,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>13.25</t>
+          <t>-8.75</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>59.92</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>49.15</t>
+          <t>35.95</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4605,82 +4605,82 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>20.9</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>1467</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>-3.63</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-4.25</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-4.61</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -4690,27 +4690,27 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>50100.0</t>
+          <t>-47153.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>鑫科</t>
+          <t>鑫聯大投控</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4720,57 +4720,57 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>11.79</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>18.7</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>6.52%</t>
+          <t>4.94%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1.78%</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>30.47</t>
+          <t>32.13</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>5577</t>
+          <t>5707</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>貴金屬材料38.12%、鈦鎳34.48%、金紅石11.48%、薄膜濺鍍靶材10.85%、其他5.08% (2024年)</t>
+          <t>電腦,零組件及週邊設備99.30%、其他0.70% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>鑫科-其他電子業-上櫃</t>
+          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>其他電子業平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>16.93</t>
+          <t>23.26</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>** 半導體 - 化學品** 電腦及週邊設備 - 其他電腦及週邊設備** 平面顯示器 - 化學品(如光阻劑、靶材等)** 觸控面板 - ITO導電薄膜** 被動元件 - 電阻器材料(氧化鋁陶瓷基板、導電漿墨)、電阻器、濾波器、振盪器** 其他 - 環保潔能服務產業** 太陽能產業 - 材料</t>
+          <t>** 電腦及週邊設備 - 中央處理器、晶片組、面板、顯示器模組、記憶體、主機板、機殼、電源供應器、網路卡、電池、散熱片、風扇馬達、散熱模組、輸出入模組/介面卡、顯示卡、硬碟機、光碟機、磁碟儲存系統、BIOS(嵌入式軟體)、筆記型電腦、桌上型電腦、工業電腦、精簡型電腦、伺服器、其他電腦及週邊設備、隨身碟、記憶卡讀卡機、多功能視訊卡、光學鏡片、鏡頭、光碟片、連接線、機構樞紐、金屬、塑膠模具、印表機、傳真機、掃瞄器、多功能事務機、投影機、安全監控系統、其他電腦及週邊設備之零組件</t>
         </is>
       </c>
     </row>
@@ -4847,17 +4847,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>10.33</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>707</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-2.02</t>
+          <t>-1.92</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>13.52</t>
+          <t>13.31</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
@@ -4987,12 +4987,12 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>30.47</t>
+          <t>29.04</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>2712</t>
+          <t>2668</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -5089,17 +5089,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>12.52</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>675</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-6.91</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>102.28</t>
+          <t>98.48</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
@@ -5229,12 +5229,12 @@
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>62.78</t>
+          <t>62.48</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>190769</t>
+          <t>183676</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5331,17 +5331,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>1370</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-7.07</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -5471,12 +5471,12 @@
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>3085</t>
+          <t>3271</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -5573,17 +5573,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>23.93</t>
+          <t>19.92</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>1057</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -5593,39 +5593,39 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>-5.23</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
           <t>1.33</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
       <c r="W22" t="inlineStr">
         <is>
           <t>100.0</t>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>23.45</t>
+          <t>22.28</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>27.68</t>
+          <t>27.47</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>10922</t>
+          <t>10376</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>758</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -6057,17 +6057,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1025</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-1.54</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>23.67</t>
+          <t>23.48</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>29.08</t>
+          <t>35.65</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>271861</t>
+          <t>269782</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -6299,17 +6299,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>17.11</t>
+          <t>11.93</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1662</t>
+          <t>722</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -6319,12 +6319,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>-5.11</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -6439,12 +6439,12 @@
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>25.31</t>
+          <t>24.82</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6541,17 +6541,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>20.68</t>
+          <t>22.1</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>2055</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -6566,7 +6566,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
@@ -6681,12 +6681,12 @@
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>25.31</t>
+          <t>24.82</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>627</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -6733,17 +6733,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2722</t>
+          <t>2633</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>48.206</t>
+          <t>7043.806</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6753,17 +6753,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>35.68</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>26.95</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -6783,37 +6783,37 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>19.32</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>4720</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>9.16</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -6823,17 +6823,17 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -6843,12 +6843,12 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -6858,37 +6858,37 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>-3071000.0</t>
+          <t>54937660.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>夏都</t>
+          <t>台灣高鐵</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>觀光事業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6898,57 +6898,57 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24.04</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>21.01%</t>
+          <t>43.12%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>-35.65%</t>
+          <t>39.47%</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>124.29</t>
+          <t>17.25</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>4818</t>
+          <t>72672</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>飯店客房69.81%、餐飲28.94%、其他1.25% (2024年)</t>
+          <t>鐵路運輸96.36%、其他營業收入3.64% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>夏都-觀光事業-上市</t>
+          <t>台灣高鐵-航運業-上市</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>17.61</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -6958,12 +6958,12 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>** 休閒娛樂 - 旅館服務業</t>
+          <t>** 交通運輸及航運 - 海陸空大眾運輸</t>
         </is>
       </c>
     </row>
@@ -6975,17 +6975,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2633</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>-3.73</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7043.806</t>
+          <t>20203.432</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6995,17 +6995,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>-2.68</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>35.68</t>
+          <t>18.14</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>26.95</t>
+          <t>223.5</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -7025,112 +7025,112 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>286</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>6867</t>
+          <t>19312</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-6.29</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-8.92</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>54937660.0</t>
+          <t>1594499080.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>台灣高鐵</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -7140,57 +7140,57 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>108.27</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>24.26</t>
+          <t>16.4</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>43.12%</t>
+          <t>7.45%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>39.47%</t>
+          <t>3.63%</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>17.43</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>73329</t>
+          <t>981107</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>鐵路運輸96.36%、其他營業收入3.64% (2024年)</t>
+          <t>電子產品99.68%、其他產品0.32% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>台灣高鐵-航運業-上市</t>
+          <t>廣達-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>57.67</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -7200,12 +7200,12 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 海陸空大眾運輸</t>
+          <t>** 電腦及週邊設備 - 筆記型電腦、其他電腦及週邊設備之零組件** 雲端運算 - 電腦設備、伺服器、儲存、網路** 運動科技 - 穿戴式裝置</t>
         </is>
       </c>
     </row>
@@ -7217,17 +7217,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2617</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>276.843</t>
+          <t>1191.315</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7237,27 +7237,27 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>1.01</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>66.8</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -7267,72 +7267,72 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-3.20</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -7342,37 +7342,37 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>1295488.0</t>
+          <t>-71654220.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>台航</t>
+          <t>中華</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -7382,57 +7382,57 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>12.68</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>38.17%</t>
+          <t>7.48%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>33.82%</t>
+          <t>-1.97%</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>17.43</t>
+          <t>18.93</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>11789</t>
+          <t>40027</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>遠洋航線81.34%、港勤7.37%、沿海航線6.26%、代管操作3.43%、其他1.59% (2024年)</t>
+          <t>成車79.53%、零件17.25%、勞務2.77%、其他0.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>台航-航運業-上市</t>
+          <t>中華-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>44.54</t>
+          <t>67.02</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7442,12 +7442,12 @@
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 散裝航運</t>
+          <t>** 汽車 - 整車組裝、修理及技術服務、銷售、進出口業務</t>
         </is>
       </c>
     </row>
@@ -7459,17 +7459,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>296891.279</t>
+          <t>227.169</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7479,27 +7479,27 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-1.69</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>39.35</t>
+          <t>16.9</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -7509,72 +7509,72 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-11.16</t>
+          <t>15.92</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2,233</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>49421</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>121.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -7584,37 +7584,37 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>23395002628.0</t>
+          <t>-561770.0</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>泰豐</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>橡膠工業</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
@@ -7639,42 +7639,42 @@
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>-14.95%</t>
+          <t>4.09%</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>-43.90%</t>
+          <t>-73.79%</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>144.87</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>109691</t>
+          <t>9514</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>動態隨機存取記憶體(DRAM)99.69%、其他0.31% (2024年)</t>
+          <t>輪胎96.38%、租賃3.62% (2024年)</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>南亞科-半導體業-上市</t>
+          <t>泰豐-橡膠工業-上市</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>52.89</t>
+          <t>14.67</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
@@ -7684,12 +7684,12 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 記憶體** 通信網路 - 記憶體** 半導體 - 記憶體IC、晶圓製造、DRAM製造</t>
+          <t>** 石化及塑橡膠 - 橡膠製品** 其他 - 其他** 汽車 - 輪胎</t>
         </is>
       </c>
     </row>
@@ -7701,17 +7701,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2746.133</t>
+          <t>844.316</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7721,27 +7721,27 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10.80</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -7751,72 +7751,72 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>2174</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-1.85</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-2.12</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -7826,37 +7826,37 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>23316196.0</t>
+          <t>-142846183.0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>國碩</t>
+          <t>南港</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>橡膠工業</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
@@ -7866,57 +7866,57 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>-1.39%</t>
+          <t>20.69%</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>-33.29%</t>
+          <t>4.53%</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>74.86</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>4246</t>
+          <t>33858</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>導電漿85.53%、其他7.20%、電力3.87%、工程2.60%、太陽能矽輔料0.80% (2024年)</t>
+          <t>輪胎59.11%、房地產40.89% (2024年)</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>國碩-光電業-上市</t>
+          <t>南港-橡膠工業-上市</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>光電業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr">
@@ -7926,12 +7926,12 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>** 太陽能產業 - 太陽能發電設備/系統及系統工程、太陽能電廠</t>
+          <t>** 汽車 - 輪胎</t>
         </is>
       </c>
     </row>
@@ -7943,17 +7943,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-3.73</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>20203.432</t>
+          <t>1930.77</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7963,17 +7963,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-2.68</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>18.14</t>
+          <t>12.89</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>223.5</t>
+          <t>15.55</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -7993,57 +7993,57 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>21870</t>
+          <t>1085</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>-6.29</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>-8.92</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -8053,17 +8053,17 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -8073,32 +8073,32 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>1594499080.0</t>
+          <t>-11219138.0</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>燁輝</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
@@ -8108,57 +8108,57 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>108.27</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>16.4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>7.45%</t>
+          <t>6.77%</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>3.63%</t>
+          <t>-1.37%</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>37.68</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>981107</t>
+          <t>30956</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>電子產品99.68%、其他產品0.32% (2024年)</t>
+          <t>鋼捲及鋼管80.54%、其他9.42%、線材8.90%、工程1.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>廣達-電腦及週邊設備業-上市</t>
+          <t>燁輝-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>57.67</t>
+          <t>19.65</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
@@ -8168,12 +8168,12 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 筆記型電腦、其他電腦及週邊設備之零組件** 雲端運算 - 電腦設備、伺服器、儲存、網路** 運動科技 - 穿戴式裝置</t>
+          <t>** 鋼鐵 - 冷熱軋鋼板捲</t>
         </is>
       </c>
     </row>
@@ -8185,17 +8185,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2207</t>
+          <t>1312</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>205.072</t>
+          <t>10016.505</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -8205,17 +8205,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>13.82</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>597.0</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -8235,112 +8235,112 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>5137</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>-4.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>-5.42</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>109792933.0</t>
+          <t>137692041.0</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>和泰車</t>
+          <t>國喬</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
@@ -8350,57 +8350,57 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>126.89</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>17.69</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>20.86%</t>
+          <t>2.76%</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>13.48%</t>
+          <t>-17.23%</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>18.84</t>
+          <t>87.98</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>362116</t>
+          <t>13224</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>商品銷售77.44%、利息收入8.21%、租賃7.39%、其他3.93%、保險費3.03% (2024年)</t>
+          <t>石化產品44.51%、塑膠製品26.93%、尼龍7.16%、廣告6.30%、包裝材料5.14%、視訊服務4.13%、汽電3.15%、授權及其他服務等1.34%、氫氣0.95%、百貨0.35%、出售試車品0.04% (2024年)</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>和泰車-汽車工業-上市</t>
+          <t>國喬-塑膠工業-上市</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>汽車工業平</t>
+          <t>塑膠工業右下</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
         <is>
-          <t>140.52</t>
+          <t>29.6</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>** 汽車 - 銷售、進出口業務** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件、電動汽車、電動機車、電動自行車</t>
+          <t>** 石化及塑橡膠 - 塑膠製品</t>
         </is>
       </c>
     </row>
@@ -8427,17 +8427,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1191.315</t>
+          <t>1037.942</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -8447,102 +8447,102 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>58.7</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>6181</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>1.94</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>66.8</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>1443</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>-3.20</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -8562,27 +8562,27 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>-71654220.0</t>
+          <t>-18352441.0</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>中華</t>
+          <t>大成</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>食品工業</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
@@ -8592,57 +8592,57 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>12.68</t>
+          <t>31.51</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>7.48%</t>
+          <t>14.74%</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>-1.97%</t>
+          <t>5.74%</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>18.84</t>
+          <t>43.91</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>39528</t>
+          <t>56281</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>成車79.53%、零件17.25%、勞務2.77%、其他0.45% (2024年)</t>
+          <t>飼料51.87%、消費食品18.76%、肉品17.75%、大宗油脂6.90%、其他4.72% (2024年)</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>中華-汽車工業-上市</t>
+          <t>大成-食品工業-上市</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
         <is>
-          <t>67.02</t>
+          <t>30.33</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr">
@@ -8656,1458 +8656,6 @@
         </is>
       </c>
       <c r="AV34" t="inlineStr">
-        <is>
-          <t>** 汽車 - 整車組裝、修理及技術服務、銷售、進出口業務</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-04-22</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2102</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>227.169</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>16.9</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>17.56</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>2275</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>-0.26</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>35.0</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>-561770.0</t>
-        </is>
-      </c>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>泰豐</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>橡膠工業</t>
-        </is>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>4.09%</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>-73.79%</t>
-        </is>
-      </c>
-      <c r="AN35" t="inlineStr">
-        <is>
-          <t>19.42</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>9703</t>
-        </is>
-      </c>
-      <c r="AP35" t="inlineStr">
-        <is>
-          <t>輪胎96.38%、租賃3.62% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ35" t="inlineStr">
-        <is>
-          <t>泰豐-橡膠工業-上市</t>
-        </is>
-      </c>
-      <c r="AR35" t="inlineStr">
-        <is>
-          <t>橡膠工業右上</t>
-        </is>
-      </c>
-      <c r="AS35" t="inlineStr">
-        <is>
-          <t>14.67</t>
-        </is>
-      </c>
-      <c r="AT35" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU35" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV35" t="inlineStr">
-        <is>
-          <t>** 石化及塑橡膠 - 橡膠製品** 其他 - 其他** 汽車 - 輪胎</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-04-22</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2101</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>-0.57</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>844.316</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>35.6</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>12.64</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>3676</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>-2.57</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>-1.85</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>-2.12</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>-142846183.0</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>南港</t>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>橡膠工業</t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>11.51</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>20.69%</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>4.53%</t>
-        </is>
-      </c>
-      <c r="AN36" t="inlineStr">
-        <is>
-          <t>19.42</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>33983</t>
-        </is>
-      </c>
-      <c r="AP36" t="inlineStr">
-        <is>
-          <t>輪胎59.11%、房地產40.89% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ36" t="inlineStr">
-        <is>
-          <t>南港-橡膠工業-上市</t>
-        </is>
-      </c>
-      <c r="AR36" t="inlineStr">
-        <is>
-          <t>橡膠工業平</t>
-        </is>
-      </c>
-      <c r="AS36" t="inlineStr">
-        <is>
-          <t>16.27</t>
-        </is>
-      </c>
-      <c r="AT36" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU36" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV36" t="inlineStr">
-        <is>
-          <t>** 汽車 - 輪胎</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-04-22</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1930.77</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>12.89</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>15.55</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>2085</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>-0.17</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>-9.0</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>-11219138.0</t>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t>燁輝</t>
-        </is>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>鋼鐵工業</t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>6.77%</t>
-        </is>
-      </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>-1.37%</t>
-        </is>
-      </c>
-      <c r="AN37" t="inlineStr">
-        <is>
-          <t>37.1</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>31250</t>
-        </is>
-      </c>
-      <c r="AP37" t="inlineStr">
-        <is>
-          <t>鋼捲及鋼管80.54%、其他9.42%、線材8.90%、工程1.14% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ37" t="inlineStr">
-        <is>
-          <t>燁輝-鋼鐵工業-上市</t>
-        </is>
-      </c>
-      <c r="AR37" t="inlineStr">
-        <is>
-          <t>鋼鐵工業平</t>
-        </is>
-      </c>
-      <c r="AS37" t="inlineStr">
-        <is>
-          <t>19.65</t>
-        </is>
-      </c>
-      <c r="AT37" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV37" t="inlineStr">
-        <is>
-          <t>** 鋼鐵 - 冷熱軋鋼板捲</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-04-22</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1414</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>512.067</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>17.3</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>-3.25</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>-1.32</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>-1.39</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>-11.0</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
-      <c r="AD38" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="AE38" t="inlineStr">
-        <is>
-          <t>8764572.0</t>
-        </is>
-      </c>
-      <c r="AF38" t="inlineStr">
-        <is>
-          <t>東和</t>
-        </is>
-      </c>
-      <c r="AG38" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>123.0</t>
-        </is>
-      </c>
-      <c r="AL38" t="inlineStr">
-        <is>
-          <t>13.32%</t>
-        </is>
-      </c>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>-0.11%</t>
-        </is>
-      </c>
-      <c r="AN38" t="inlineStr">
-        <is>
-          <t>59.46</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>4059</t>
-        </is>
-      </c>
-      <c r="AP38" t="inlineStr">
-        <is>
-          <t>特殊紗53.70%、租賃24.30%、一般紗21.59%、其他0.41% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ38" t="inlineStr">
-        <is>
-          <t>東和-紡織纖維-上市</t>
-        </is>
-      </c>
-      <c r="AR38" t="inlineStr">
-        <is>
-          <t>紡織纖維平</t>
-        </is>
-      </c>
-      <c r="AS38" t="inlineStr">
-        <is>
-          <t>14.06</t>
-        </is>
-      </c>
-      <c r="AT38" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU38" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV38" t="inlineStr">
-        <is>
-          <t>** 紡織 - 紡紗</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-04-22</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1312</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>10016.505</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>31.86</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>11.7</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>3380</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>-1.26</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>-0.16</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
-      <c r="AD39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE39" t="inlineStr">
-        <is>
-          <t>137692041.0</t>
-        </is>
-      </c>
-      <c r="AF39" t="inlineStr">
-        <is>
-          <t>國喬</t>
-        </is>
-      </c>
-      <c r="AG39" t="inlineStr">
-        <is>
-          <t>塑膠工業</t>
-        </is>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL39" t="inlineStr">
-        <is>
-          <t>2.76%</t>
-        </is>
-      </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>-17.23%</t>
-        </is>
-      </c>
-      <c r="AN39" t="inlineStr">
-        <is>
-          <t>86.86</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>13113</t>
-        </is>
-      </c>
-      <c r="AP39" t="inlineStr">
-        <is>
-          <t>石化產品44.51%、塑膠製品26.93%、尼龍7.16%、廣告6.30%、包裝材料5.14%、視訊服務4.13%、汽電3.15%、授權及其他服務等1.34%、氫氣0.95%、百貨0.35%、出售試車品0.04% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ39" t="inlineStr">
-        <is>
-          <t>國喬-塑膠工業-上市</t>
-        </is>
-      </c>
-      <c r="AR39" t="inlineStr">
-        <is>
-          <t>塑膠工業右下</t>
-        </is>
-      </c>
-      <c r="AS39" t="inlineStr">
-        <is>
-          <t>29.6</t>
-        </is>
-      </c>
-      <c r="AT39" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU39" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV39" t="inlineStr">
-        <is>
-          <t>** 石化及塑橡膠 - 塑膠製品</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-04-22</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1210</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1037.942</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>58.7</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>8388</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>-3.07</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
-      <c r="AD40" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="AE40" t="inlineStr">
-        <is>
-          <t>-18352441.0</t>
-        </is>
-      </c>
-      <c r="AF40" t="inlineStr">
-        <is>
-          <t>大成</t>
-        </is>
-      </c>
-      <c r="AG40" t="inlineStr">
-        <is>
-          <t>食品工業</t>
-        </is>
-      </c>
-      <c r="AH40" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI40" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>31.51</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>14.82</t>
-        </is>
-      </c>
-      <c r="AL40" t="inlineStr">
-        <is>
-          <t>14.74%</t>
-        </is>
-      </c>
-      <c r="AM40" t="inlineStr">
-        <is>
-          <t>5.74%</t>
-        </is>
-      </c>
-      <c r="AN40" t="inlineStr">
-        <is>
-          <t>44.83</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>55297</t>
-        </is>
-      </c>
-      <c r="AP40" t="inlineStr">
-        <is>
-          <t>飼料51.87%、消費食品18.76%、肉品17.75%、大宗油脂6.90%、其他4.72% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ40" t="inlineStr">
-        <is>
-          <t>大成-食品工業-上市</t>
-        </is>
-      </c>
-      <c r="AR40" t="inlineStr">
-        <is>
-          <t>食品工業右上</t>
-        </is>
-      </c>
-      <c r="AS40" t="inlineStr">
-        <is>
-          <t>30.33</t>
-        </is>
-      </c>
-      <c r="AT40" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU40" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV40" t="inlineStr">
         <is>
           <t>** 食品 - 原物料、加工食品、冷凍、罐頭、脫水、醃漬食品</t>
         </is>

--- a/Result/check3/2025-04-22.xlsx
+++ b/Result/check3/2025-04-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV34"/>
+  <dimension ref="A1:AV35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-11.29</t>
+          <t>-11.65</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3033</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-5.32</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21.01</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>3229</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>542</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>16.18</t>
+          <t>16.34</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>30.07</t>
+          <t>30.33</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>45847</t>
+          <t>46290</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8039</t>
+          <t>6834</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1094.221</t>
+          <t>2471.129</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>22.45</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>30.85</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>15.01</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>1629</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-1.69</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-2.00</t>
+          <t>-1.38</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>258.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1539,27 +1539,27 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-49069644.0</t>
+          <t>120031823.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>台虹</t>
+          <t>天二科技</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1574,57 +1574,57 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>19.98</t>
+          <t>39.03</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>18.74%</t>
+          <t>15.95%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>3.70%</t>
+          <t>1.80%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>10853</t>
+          <t>3211</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>商品銷售100.00% (2024年)</t>
+          <t>厚膜電阻40.49%、金屬板電阻31.67%、薄膜電阻27.33%、其他0.50% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>台虹-電子零組件業-上市</t>
+          <t>天二科技-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>16.55</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 銅箔基板</t>
+          <t>** 被動元件 - 電阻器</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6834</t>
+          <t>6625</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2471.129</t>
+          <t>104.863</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>30.85</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,77 +1701,77 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>13.22</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4679</t>
+          <t>534</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-6.16</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-1.33</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>258.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1781,32 +1781,32 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>120031823.0</t>
+          <t>6988831.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>天二科技</t>
+          <t>必應</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1816,57 +1816,57 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>55.55</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>15.95%</t>
+          <t>20.68%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1.80%</t>
+          <t>14.93%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>30.33</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3145</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>厚膜電阻40.49%、金屬板電阻31.67%、薄膜電阻27.33%、其他0.50% (2024年)</t>
+          <t>製作設計及硬體工程98.93%、設備出租0.76%、展演票券0.26%、其他0.05% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>天二科技-電子零組件業-上市</t>
+          <t>必應-其他-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>其他右下</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>16.55</t>
+          <t>20.44</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1876,12 +1876,12 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 被動元件 - 電阻器</t>
+          <t>** 文化創意業 - 流行音樂及文化內容產業</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6625</t>
+          <t>6550</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>104.863</t>
+          <t>1138.614</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,142 +1913,142 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>37.5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>3046</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-3.24</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>-1.51</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>-2.55</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>68.0</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>541</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>-3.91</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>-1.33</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>-2.21</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>6988831.0</t>
+          <t>-63251539.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>必應</t>
+          <t>北極星藥業-KY</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2058,57 +2058,57 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>18.63</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>12.77</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>20.68%</t>
+          <t>-93.37%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>14.93%</t>
+          <t>-2,339.21%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>30.07</t>
+          <t>38.56</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>4302</t>
+          <t>34015</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>製作設計及硬體工程98.93%、設備出租0.76%、展演票券0.26%、其他0.05% (2024年)</t>
+          <t>勞務52.40%、委託生產藥品及製造43.94%、其他營業收入3.67% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>必應-其他-上市</t>
+          <t>北極星藥業-KY-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>其他右下</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>20.44</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 流行音樂及文化內容產業</t>
+          <t>** 製藥 - 中、西藥製劑** 再生醫療 - 臨床實驗、移植技術、疾病治療</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6550</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-3.87</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1138.614</t>
+          <t>72.812</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.73</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>12.99</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>31.05</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,112 +2185,112 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-3.05</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-3.08</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>-65.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1919</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>10.60</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>-1.51</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-2.55</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>83.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>2025-05-08</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-63251539.0</t>
+          <t>-6908716.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>北極星藥業-KY</t>
+          <t>迅杰</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2300,57 +2300,57 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.84</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>-93.37%</t>
+          <t>41.73%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>-2,339.21%</t>
+          <t>1.99%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>38.79</t>
+          <t>157.97</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>33899</t>
+          <t>1845</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>勞務52.40%、委託生產藥品及製造43.94%、其他營業收入3.67% (2024年)</t>
+          <t>筆記型電腦相關應用IC及其他100.00% (2023年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>北極星藥業-KY-生技醫療業-上市</t>
+          <t>迅杰-半導體業-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>半導體業右下</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>18.96</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 製藥 - 中、西藥製劑** 再生醫療 - 臨床實驗、移植技術、疾病治療</t>
+          <t>** 半導體 - 輸出入介面IC</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>9.67</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>11122</t>
+          <t>3835</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>55.98</t>
+          <t>55.78</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>35.65</t>
+          <t>35.71</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>4440</t>
+          <t>4424</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2911,17 +2911,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>32</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>6505</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2931,12 +2931,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>11.98</t>
+          <t>11.93</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>58506</t>
+          <t>58289</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3153,17 +3153,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>70</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>11513</t>
+          <t>6675</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>19.68</t>
+          <t>19.6</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>377560</t>
+          <t>376038</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3395,17 +3395,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>116</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>5401</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>30.07</t>
+          <t>30.33</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>197149</t>
+          <t>197988</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1243</t>
+          <t>1836</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-2.25</t>
+          <t>-3.68</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -4019,12 +4019,12 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>48.31</t>
+          <t>52.57</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>10851</t>
+          <t>10607</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -5089,17 +5089,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>805</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -5109,12 +5109,12 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-6.91</t>
+          <t>-3.27</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>98.48</t>
+          <t>97.48</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
@@ -5229,12 +5229,12 @@
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>62.48</t>
+          <t>67.4</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>183676</t>
+          <t>181809</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -5331,17 +5331,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>651</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -5471,12 +5471,12 @@
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>88.06</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>3271</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -5573,17 +5573,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>19.92</t>
+          <t>21.98</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>532</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-5.23</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>22.28</t>
+          <t>22.86</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>27.47</t>
+          <t>27.96</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>10376</t>
+          <t>10649</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -5815,17 +5815,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>25.18</t>
+          <t>24.91</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
@@ -5955,12 +5955,12 @@
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>74.86</t>
+          <t>76.04</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>2147</t>
+          <t>2123</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -6057,99 +6057,99 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>-1.17</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>-1.89</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>1025</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>-1.54</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>-1.17</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>-1.89</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>2025-05-08</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="AE24" t="inlineStr">
         <is>
           <t>-311467728.0</t>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>35.65</t>
+          <t>35.75</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>269782</t>
+          <t>271341</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -6299,17 +6299,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>11.93</t>
+          <t>15.76</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>1312</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -6319,12 +6319,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-5.11</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -6439,12 +6439,12 @@
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>24.82</t>
+          <t>26.1</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -6491,17 +6491,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2726</t>
+          <t>2633</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>7043.806</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6511,17 +6511,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>35.68</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>17.45</t>
+          <t>26.95</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -6541,57 +6541,57 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>22.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>3344</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -6601,12 +6601,12 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -6616,97 +6616,97 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>-384.0</t>
+          <t>54937660.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>雅茗-KY</t>
+          <t>台灣高鐵</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>觀光事業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>23.91</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>55.82%</t>
+          <t>43.12%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>-6.72%</t>
+          <t>39.47%</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>24.82</t>
+          <t>17.58</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>72278</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>商品銷售42.97%、餐飲32.27%、品牌業務18.72%、其他6.04% (2024年)</t>
+          <t>鐵路運輸96.36%、其他營業收入3.64% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>雅茗-KY-觀光事業-上櫃</t>
+          <t>台灣高鐵-航運業-上市</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>12.97</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -6716,12 +6716,12 @@
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>** 食品 - 餐飲連鎖</t>
+          <t>** 交通運輸及航運 - 海陸空大眾運輸</t>
         </is>
       </c>
     </row>
@@ -6733,17 +6733,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2633</t>
+          <t>2617</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7043.806</t>
+          <t>276.843</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6753,27 +6753,27 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>35.68</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26.95</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -6783,57 +6783,57 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>4720</t>
+          <t>638</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -6843,12 +6843,12 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -6858,32 +6858,32 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>54937660.0</t>
+          <t>1295488.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>台灣高鐵</t>
+          <t>台航</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
@@ -6898,47 +6898,47 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>43.12%</t>
+          <t>38.17%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>39.47%</t>
+          <t>33.82%</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>17.25</t>
+          <t>17.58</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>72672</t>
+          <t>11789</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>鐵路運輸96.36%、其他營業收入3.64% (2024年)</t>
+          <t>遠洋航線81.34%、港勤7.37%、沿海航線6.26%、代管操作3.43%、其他1.59% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>台灣高鐵-航運業-上市</t>
+          <t>台航-航運業-上市</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>44.54</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -6958,12 +6958,12 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 海陸空大眾運輸</t>
+          <t>** 交通運輸及航運 - 散裝航運</t>
         </is>
       </c>
     </row>
@@ -6975,17 +6975,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-3.73</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20203.432</t>
+          <t>2746.133</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-2.68</t>
+          <t>10.80</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -7005,17 +7005,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>18.14</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>223.5</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -7025,112 +7025,112 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>19312</t>
+          <t>760</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-6.29</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-8.92</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>1594499080.0</t>
+          <t>23316196.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>國碩</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -7140,57 +7140,57 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>108.27</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>16.4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>7.45%</t>
+          <t>-1.39%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>3.63%</t>
+          <t>-33.29%</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>76.04</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>981107</t>
+          <t>4246</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>電子產品99.68%、其他產品0.32% (2024年)</t>
+          <t>導電漿85.53%、其他7.20%、電力3.87%、工程2.60%、太陽能矽輔料0.80% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>廣達-電腦及週邊設備業-上市</t>
+          <t>國碩-光電業-上市</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>光電業右下</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>57.67</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -7200,12 +7200,12 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 筆記型電腦、其他電腦及週邊設備之零組件** 雲端運算 - 電腦設備、伺服器、儲存、網路** 運動科技 - 穿戴式裝置</t>
+          <t>** 太陽能產業 - 太陽能發電設備/系統及系統工程、太陽能電廠</t>
         </is>
       </c>
     </row>
@@ -7217,17 +7217,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>-3.73</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1191.315</t>
+          <t>20203.432</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7237,27 +7237,27 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>-2.68</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>18.14</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>66.8</t>
+          <t>223.5</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -7267,112 +7267,112 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>403</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1332</t>
+          <t>16832</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-3.20</t>
+          <t>-6.29</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-8.92</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>-71654220.0</t>
+          <t>1594499080.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>中華</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -7382,57 +7382,57 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>12.68</t>
+          <t>108.27</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>7.48%</t>
+          <t>7.45%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>-1.97%</t>
+          <t>3.63%</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>18.93</t>
+          <t>96.15</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>40027</t>
+          <t>971451</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>成車79.53%、零件17.25%、勞務2.77%、其他0.45% (2024年)</t>
+          <t>電子產品99.68%、其他產品0.32% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>中華-汽車工業-上市</t>
+          <t>廣達-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>67.02</t>
+          <t>57.67</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7442,12 +7442,12 @@
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>** 汽車 - 整車組裝、修理及技術服務、銷售、進出口業務</t>
+          <t>** 電腦及週邊設備 - 筆記型電腦、其他電腦及週邊設備之零組件** 雲端運算 - 電腦設備、伺服器、儲存、網路** 運動科技 - 穿戴式裝置</t>
         </is>
       </c>
     </row>
@@ -7459,17 +7459,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2102</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>227.169</t>
+          <t>1191.315</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7479,27 +7479,27 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>16.9</t>
+          <t>66.8</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -7509,72 +7509,72 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>15.92</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-3.20</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -7584,37 +7584,37 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>-561770.0</t>
+          <t>-71654220.0</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>泰豐</t>
+          <t>中華</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>橡膠工業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -7624,57 +7624,57 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>12.68</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>4.09%</t>
+          <t>7.48%</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>-73.79%</t>
+          <t>-1.97%</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>9514</t>
+          <t>40359</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>輪胎96.38%、租賃3.62% (2024年)</t>
+          <t>成車79.53%、零件17.25%、勞務2.77%、其他0.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>泰豐-橡膠工業-上市</t>
+          <t>中華-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>橡膠工業平</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>14.67</t>
+          <t>67.02</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
@@ -7684,12 +7684,12 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 橡膠製品** 其他 - 其他** 汽車 - 輪胎</t>
+          <t>** 汽車 - 整車組裝、修理及技術服務、銷售、進出口業務</t>
         </is>
       </c>
     </row>
@@ -7701,17 +7701,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2101</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>844.316</t>
+          <t>227.169</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7721,27 +7721,27 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>16.9</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -7751,162 +7751,162 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2174</t>
+          <t>614</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>-0.35</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>-561770.0</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>泰豐</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>橡膠工業</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
           <t>0.17</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>-1.85</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>-2.12</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>2025-05-08</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>-142846183.0</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>南港</t>
-        </is>
-      </c>
-      <c r="AG31" t="inlineStr">
-        <is>
-          <t>橡膠工業</t>
-        </is>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>20.69%</t>
+          <t>4.09%</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>4.53%</t>
+          <t>-73.79%</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>19.3</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>33858</t>
+          <t>9467</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>輪胎59.11%、房地產40.89% (2024年)</t>
+          <t>輪胎96.38%、租賃3.62% (2024年)</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>南港-橡膠工業-上市</t>
+          <t>泰豐-橡膠工業-上市</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>16.27</t>
+          <t>14.67</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>** 汽車 - 輪胎</t>
+          <t>** 石化及塑橡膠 - 橡膠製品** 其他 - 其他** 汽車 - 輪胎</t>
         </is>
       </c>
     </row>
@@ -7943,17 +7943,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1930.77</t>
+          <t>844.316</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7963,104 +7963,104 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>12.89</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>35.6</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>1270</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>-1.24</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>-1.85</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>-2.12</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>15.55</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>1085</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>-0.95</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>-0.17</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>-9.0</t>
-        </is>
-      </c>
       <c r="Z32" t="inlineStr">
         <is>
           <t>False</t>
@@ -8068,37 +8068,37 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>-11219138.0</t>
+          <t>-142846183.0</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>燁輝</t>
+          <t>南港</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>橡膠工業</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
@@ -8108,57 +8108,57 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11.38</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>6.77%</t>
+          <t>20.69%</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>-1.37%</t>
+          <t>4.53%</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>37.68</t>
+          <t>19.3</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>30956</t>
+          <t>33608</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>鋼捲及鋼管80.54%、其他9.42%、線材8.90%、工程1.14% (2024年)</t>
+          <t>輪胎59.11%、房地產40.89% (2024年)</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>燁輝-鋼鐵工業-上市</t>
+          <t>南港-橡膠工業-上市</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>19.65</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
@@ -8168,12 +8168,12 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>** 鋼鐵 - 冷熱軋鋼板捲</t>
+          <t>** 汽車 - 輪胎</t>
         </is>
       </c>
     </row>
@@ -8185,17 +8185,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1312</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10016.505</t>
+          <t>1930.77</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -8205,17 +8205,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>12.89</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>15.55</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -8235,112 +8235,112 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>5137</t>
+          <t>1577</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>137692041.0</t>
+          <t>-11219138.0</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>國喬</t>
+          <t>燁輝</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
@@ -8365,42 +8365,42 @@
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>2.76%</t>
+          <t>6.77%</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>-17.23%</t>
+          <t>-1.37%</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>87.98</t>
+          <t>37.42</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>13224</t>
+          <t>30956</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>石化產品44.51%、塑膠製品26.93%、尼龍7.16%、廣告6.30%、包裝材料5.14%、視訊服務4.13%、汽電3.15%、授權及其他服務等1.34%、氫氣0.95%、百貨0.35%、出售試車品0.04% (2024年)</t>
+          <t>鋼捲及鋼管80.54%、其他9.42%、線材8.90%、工程1.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>國喬-塑膠工業-上市</t>
+          <t>燁輝-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>塑膠工業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
         <is>
-          <t>29.6</t>
+          <t>19.65</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品</t>
+          <t>** 鋼鐵 - 冷熱軋鋼板捲</t>
         </is>
       </c>
     </row>
@@ -8427,235 +8427,477 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>1312</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10016.505</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>11.7</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>137692041.0</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>國喬</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>2.76%</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>-17.23%</t>
+        </is>
+      </c>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>13279</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>石化產品44.51%、塑膠製品26.93%、尼龍7.16%、廣告6.30%、包裝材料5.14%、視訊服務4.13%、汽電3.15%、授權及其他服務等1.34%、氫氣0.95%、百貨0.35%、出售試車品0.04% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>國喬-塑膠工業-上市</t>
+        </is>
+      </c>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>塑膠工業右下</t>
+        </is>
+      </c>
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>29.6</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV34" t="inlineStr">
+        <is>
+          <t>** 石化及塑橡膠 - 塑膠製品</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>1210</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>1037.942</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>0.35</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>0.77</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>4.86</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>1.19</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>58.7</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>6181</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>3156</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
         <is>
           <t>0.34</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>-0.63</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>0.57</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>0.54</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>0.34</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
+      <c r="W35" t="inlineStr">
         <is>
           <t>99.0</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>27.0</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="Y35" t="inlineStr">
         <is>
           <t>19.0</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="Z35" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA34" t="inlineStr">
+      <c r="AA35" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr">
+      <c r="AB35" t="inlineStr">
         <is>
           <t>2025-04-18</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>2025-05-08</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="AE34" t="inlineStr">
+      <c r="AE35" t="inlineStr">
         <is>
           <t>-18352441.0</t>
         </is>
       </c>
-      <c r="AF34" t="inlineStr">
+      <c r="AF35" t="inlineStr">
         <is>
           <t>大成</t>
         </is>
       </c>
-      <c r="AG34" t="inlineStr">
+      <c r="AG35" t="inlineStr">
         <is>
           <t>食品工業</t>
         </is>
       </c>
-      <c r="AH34" t="inlineStr">
+      <c r="AH35" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>31.51</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>14.77</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>14.74%</t>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>5.74%</t>
-        </is>
-      </c>
-      <c r="AN34" t="inlineStr">
-        <is>
-          <t>43.91</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>56281</t>
-        </is>
-      </c>
-      <c r="AP34" t="inlineStr">
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>15.39%</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>5.29%</t>
+        </is>
+      </c>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>44.03</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>56102</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
         <is>
           <t>飼料51.87%、消費食品18.76%、肉品17.75%、大宗油脂6.90%、其他4.72% (2024年)</t>
         </is>
       </c>
-      <c r="AQ34" t="inlineStr">
+      <c r="AQ35" t="inlineStr">
         <is>
           <t>大成-食品工業-上市</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AR35" t="inlineStr">
         <is>
           <t>食品工業右上</t>
         </is>
       </c>
-      <c r="AS34" t="inlineStr">
-        <is>
-          <t>30.33</t>
-        </is>
-      </c>
-      <c r="AT34" t="inlineStr">
+      <c r="AS35" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU34" t="inlineStr">
+      <c r="AU35" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AV34" t="inlineStr">
+      <c r="AV35" t="inlineStr">
         <is>
           <t>** 食品 - 原物料、加工食品、冷凍、罐頭、脫水、醃漬食品</t>
         </is>

--- a/Result/check3/2025-04-22.xlsx
+++ b/Result/check3/2025-04-22.xlsx
@@ -733,7 +733,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-11.65</t>
+          <t>-13.86</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -743,22 +743,22 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,19 +788,19 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>50.0</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
           <t>True</t>
@@ -853,7 +853,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -863,22 +863,22 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>-7.56%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>-22.19%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>21.23</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3229</t>
+          <t>3167</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>623</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>16.34</t>
+          <t>16.39</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>30.33</t>
+          <t>32.23</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>46290</t>
+          <t>46438</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8390</t>
+          <t>8039</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20346.0</t>
+          <t>1094.221</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,172 +1217,172 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>570</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.03</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-1.69</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>216.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2225258.0</t>
+          <t>-49069644.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>金益鼎</t>
+          <t>台虹</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>綠能環保</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>13.24</t>
+          <t>20.45</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>18.74%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>13.54%</t>
+          <t>3.70%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>41.99</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6161</t>
+          <t>11110</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>銅52.09%、金及含金混合貴金屬26.56%、其他21.35% (2024年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>金益鼎-綠能環保-上櫃</t>
+          <t>台虹-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>34.12</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1392,12 +1392,12 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 其他 - 環保潔能服務產業</t>
+          <t>** 印刷電路板 - 銅箔基板</t>
         </is>
       </c>
     </row>
@@ -1459,22 +1459,22 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>15.01</t>
+          <t>14.07</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1629</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-6.68</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,37 +1574,37 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>39.03</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>15.95%</t>
+          <t>21.20%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1.80%</t>
+          <t>6.48%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>3176</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>16.55</t>
+          <t>16.77</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6625</t>
+          <t>6550</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>104.863</t>
+          <t>1138.614</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,142 +1671,142 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>37.5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1445</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-1.38</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>-1.51</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>-2.55</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>68.0</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>11.11</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>534</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>-1.33</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>-2.21</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>6988831.0</t>
+          <t>-63251539.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>必應</t>
+          <t>北極星藥業-KY</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1816,57 +1816,57 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>18.63</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>13.17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>20.68%</t>
+          <t>-93.37%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>14.93%</t>
+          <t>-2,339.21%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>30.33</t>
+          <t>38.18</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4435</t>
+          <t>33167</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>製作設計及硬體工程98.93%、設備出租0.76%、展演票券0.26%、其他0.05% (2024年)</t>
+          <t>勞務52.40%、委託生產藥品及製造43.94%、其他營業收入3.67% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>必應-其他-上市</t>
+          <t>北極星藥業-KY-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>其他右下</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>20.44</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 流行音樂及文化內容產業</t>
+          <t>** 製藥 - 中、西藥製劑** 再生醫療 - 臨床實驗、移植技術、疾病治療</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6550</t>
+          <t>6169</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-3.87</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1138.614</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.73</t>
+          <t>-2.45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12.99</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>20.2</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,77 +1943,77 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>15.06</t>
+          <t>24.63</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3046</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-3.24</t>
+          <t>-6.71</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2028,32 +2028,32 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-63251539.0</t>
+          <t>2405.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>北極星藥業-KY</t>
+          <t>昱泉</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
@@ -2073,42 +2073,42 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>-93.37%</t>
+          <t>17.96%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>-2,339.21%</t>
+          <t>-206.75%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>38.56</t>
+          <t>124.02</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>34015</t>
+          <t>627</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>勞務52.40%、委託生產藥品及製造43.94%、其他營業收入3.67% (2024年)</t>
+          <t>遊戲及APP應用100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>北極星藥業-KY-生技醫療業-上市</t>
+          <t>昱泉-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>12.49</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2118,12 +2118,12 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 製藥 - 中、西藥製劑** 再生醫療 - 臨床實驗、移植技術、疾病治療</t>
+          <t>** 休閒娛樂 - 線上遊戲業、設計開發、營運發行** 文化創意業 - 數位內容產業</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>6165</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>72.812</t>
+          <t>2333.201</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,142 +2155,142 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>20.98</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1,351</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>8460</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>31.05</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>23.8</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>755</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>-0.68</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>-3.05</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-3.08</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>-65.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>41.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-6908716.0</t>
+          <t>-246585330.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>迅杰</t>
+          <t>浪凡</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>數位雲端</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2300,57 +2300,57 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>46.84</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>41.73%</t>
+          <t>25.57%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1.99%</t>
+          <t>1.84%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>157.97</t>
+          <t>36.47</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1845</t>
+          <t>4743</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>筆記型電腦相關應用IC及其他100.00% (2023年)</t>
+          <t>直播平台營運99.63%、商品銷售0.37% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>迅杰-半導體業-上市</t>
+          <t>浪凡-數位雲端-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>數位雲端右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>18.96</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 半導體 - 輸出入介面IC</t>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6169</t>
+          <t>6005</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>11272.961</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-2.45</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>24.80</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>25.8</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,77 +2427,77 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>2128</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -2512,87 +2512,87 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2405.0</t>
+          <t>266994595.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>昱泉</t>
+          <t>群益證</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>17.96%</t>
+          <t>67.23%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>-206.75%</t>
+          <t>21.70%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>13.03</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>58397</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>遊戲及APP應用100.00% (2024年)</t>
+          <t>經紀手續費41.57%、營業證券出售損益38.12%、利息收入22.27%、股利收入8.24%、借券3.53%、期貨佣金1.86%、發行認購(售)權證淨損益1.47%、股務代理0.99%、承銷業務0.75%、財富管理0.60%、透過其他綜合損益按公允價值0.44%、顧問0.14%、經理費0.05%、借貸手續費0.03% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>昱泉-文化創意業-上櫃</t>
+          <t>群益證-金融保險-上市</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>12.49</t>
+          <t>19.47</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 休閒娛樂 - 線上遊戲業、設計開發、營運發行** 文化創意業 - 數位內容產業</t>
+          <t>** 金融 - 證券業</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6165</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2333.201</t>
+          <t>5378.941</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>20.98</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>23.9</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,77 +2669,77 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>9.67</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>125</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3835</t>
+          <t>10647</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2749,32 +2749,32 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-246585330.0</t>
+          <t>-59968445.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>浪凡</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>數位雲端</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2784,57 +2784,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>55.78</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>25.57%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1.84%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>35.71</t>
+          <t>13.03</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>4424</t>
+          <t>379844</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>直播平台營運99.63%、商品銷售0.37% (2024年)</t>
+          <t>公平價值變動之金融資產與金50.47%、利息淨收益45.84%、手續費及佣金16.83%、保險業務8.02%、透過其他綜合損益按公允價值4.53%、其他利息以外淨收益0.45%、投資性不動產0.13%、採用覆蓋法重分類損益0.12%、資產減損迴轉利益(減損損失)0.05%、權益法投資收益-關聯和合營公0.02% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>浪凡-數位雲端-上市</t>
+          <t>合庫金-金融保險-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>數位雲端右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>18.63</t>
+          <t>16.69</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2844,12 +2844,12 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 連接器 - 連接器設計、組裝及製造</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6005</t>
+          <t>5871</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-1.38</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11272.961</t>
+          <t>5026.504</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>24.80</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>25.8</t>
+          <t>109.5</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,77 +2911,77 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>90</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4357</t>
+          <t>4884</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-2.84</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-3.09</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2991,32 +2991,32 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>266994595.0</t>
+          <t>-841038245.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>群益證</t>
+          <t>中租-KY</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -3026,57 +3026,57 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>13.85</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>11.93</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>67.23%</t>
+          <t>66.01%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21.70%</t>
+          <t>22.62%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>32.23</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>58289</t>
+          <t>202182</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>經紀手續費41.57%、營業證券出售損益38.12%、利息收入22.27%、股利收入8.24%、借券3.53%、期貨佣金1.86%、發行認購(售)權證淨損益1.47%、股務代理0.99%、承銷業務0.75%、財富管理0.60%、透過其他綜合損益按公允價值0.44%、顧問0.14%、經理費0.05%、借貸手續費0.03% (2024年)</t>
+          <t>融資租賃利息收入31.26%、分期付款利息22.02%、其他利息12.15%、放款利息11.83%、其他營業收入8.08%、商品銷售7.96%、租賃6.70% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>群益證-金融保險-上市</t>
+          <t>中租-KY-其他-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>其他右下</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>19.47</t>
+          <t>94.7</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3086,12 +3086,12 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 金融 - 證券業</t>
+          <t>** 金融 - 租賃業** 太陽能產業 - 太陽能電廠</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>5531</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5378.941</t>
+          <t>4941.892</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>36.48</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>23.9</t>
+          <t>10.85</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,77 +3153,77 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>6675</t>
+          <t>840</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -3233,32 +3233,32 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-59968445.0</t>
+          <t>32586833.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>鄉林</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3268,57 +3268,57 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>19.6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25.68%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.34%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>52.93</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>376038</t>
+          <t>10705</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>公平價值變動之金融資產與金50.47%、利息淨收益45.84%、手續費及佣金16.83%、保險業務8.02%、透過其他綜合損益按公允價值4.53%、其他利息以外淨收益0.45%、投資性不動產0.13%、採用覆蓋法重分類損益0.12%、資產減損迴轉利益(減損損失)0.05%、權益法投資收益-關聯和合營公0.02% (2024年)</t>
+          <t>房地銷售85.05%、酒店13.66%、租賃1.05%、其他0.23% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>合庫金-金融保險-上市</t>
+          <t>鄉林-建材營造-上市</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>16.69</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5871</t>
+          <t>5490</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5026.504</t>
+          <t>284.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,202 +3365,202 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>22.5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>16.97</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2076</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-2.57</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>-0.79</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>-1.04</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>109.5</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>3657</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>-0.85</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>-2.84</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>-3.09</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-841038245.0</t>
+          <t>6832.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>中租-KY</t>
+          <t>同亨</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>13.85</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>27.65</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>66.01%</t>
+          <t>46.02%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>22.62%</t>
+          <t>18.72%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>30.33</t>
+          <t>32.18</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>197988</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>融資租賃利息收入31.26%、分期付款利息22.02%、其他利息12.15%、放款利息11.83%、其他營業收入8.08%、商品銷售7.96%、租賃6.70% (2024年)</t>
+          <t>電子金融交易終端機58.68%、其他18.92%、交易資料安全保護設備14.86%、讀寫卡機7.54% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>中租-KY-其他-上市</t>
+          <t>同亨-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>其他右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>94.7</t>
+          <t>14.06</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3570,12 +3570,12 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 金融 - 租賃業** 太陽能產業 - 太陽能電廠</t>
+          <t>** 電腦及週邊設備 - 工業電腦** 觸控面板 - 工業用設備</t>
         </is>
       </c>
     </row>
@@ -3587,162 +3587,162 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>383.0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>29.7</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-1.42</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>12.35</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>681</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>-0.72</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>-0.72</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>37.0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>-5241.0</t>
+          <t>-13698.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>致和證</t>
+          <t>濟生</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>金融業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3752,57 +3752,57 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>16.29</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38.00%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13.69%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>14.17</t>
+          <t>74.85</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>5323</t>
+          <t>1801</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>營業證券透過損益按公允價值27.87%、經紀手續費27.71%、證券出售損益24.42%、股利收入11.89%、利息收入7.69%、承銷業務0.21%、期貨佣金0.21% (2024年)</t>
+          <t>商品銷售79.43%、加工業務20.16%、商品開發0.41% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>致和證-金融業-上櫃</t>
+          <t>濟生-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>22.37</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 金融 - 證券業</t>
+          <t>** 製藥 - 中、西藥製劑</t>
         </is>
       </c>
     </row>
@@ -3829,17 +3829,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5531</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>-1.78</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4941.892</t>
+          <t>23443.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,27 +3849,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>-8.75</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>36.48</t>
+          <t>59.92</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10.85</t>
+          <t>35.95</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3879,67 +3879,67 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>25.88</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>75</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>2456</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-3.68</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -3974,77 +3974,77 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>32586833.0</t>
+          <t>-47153.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>鄉林</t>
+          <t>鑫聯大投控</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19.96</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>25.68%</t>
+          <t>4.94%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>15.34%</t>
+          <t>1.78%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>52.57</t>
+          <t>32.18</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>10607</t>
+          <t>6090</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>房地銷售85.05%、酒店13.66%、租賃1.05%、其他0.23% (2024年)</t>
+          <t>電腦,零組件及週邊設備99.30%、其他0.70% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>鄉林-建材營造-上市</t>
+          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>23.26</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 電腦及週邊設備 - 中央處理器、晶片組、面板、顯示器模組、記憶體、主機板、機殼、電源供應器、網路卡、電池、散熱片、風扇馬達、散熱模組、輸出入模組/介面卡、顯示卡、硬碟機、光碟機、磁碟儲存系統、BIOS(嵌入式軟體)、筆記型電腦、桌上型電腦、工業電腦、精簡型電腦、伺服器、其他電腦及週邊設備、隨身碟、記憶卡讀卡機、多功能視訊卡、光學鏡片、鏡頭、光碟片、連接線、機構樞紐、金屬、塑膠模具、印表機、傳真機、掃瞄器、多功能事務機、投影機、安全監控系統、其他電腦及週邊設備之零組件</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5490</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>10.22</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>284.0</t>
+          <t>1849.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4091,27 +4091,27 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>13.25</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>49.15</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -4121,72 +4121,72 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>16.36</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>5582</t>
+          <t>3249</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-6.50</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-4.25</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>-4.61</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -4206,27 +4206,27 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>6832.0</t>
+          <t>50100.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>同亨</t>
+          <t>鑫科</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -4236,57 +4236,57 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>27.45</t>
+          <t>120.0</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>46.02%</t>
+          <t>6.36%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>18.72%</t>
+          <t>1.34%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>32.13</t>
+          <t>28.92</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>2586</t>
+          <t>5859</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>電子金融交易終端機58.68%、其他18.92%、交易資料安全保護設備14.86%、讀寫卡機7.54% (2024年)</t>
+          <t>貴金屬材料38.12%、鈦鎳34.48%、金紅石11.48%、薄膜濺鍍靶材10.85%、其他5.08% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>同亨-電腦及週邊設備業-上櫃</t>
+          <t>鑫科-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>其他電子業平</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>14.06</t>
+          <t>17.32</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦** 觸控面板 - 工業用設備</t>
+          <t>** 半導體 - 化學品** 電腦及週邊設備 - 其他電腦及週邊設備** 平面顯示器 - 化學品(如光阻劑、靶材等)** 觸控面板 - ITO導電薄膜** 被動元件 - 電阻器材料(氧化鋁陶瓷基板、導電漿墨)、電阻器、濾波器、振盪器** 其他 - 環保潔能服務產業** 太陽能產業 - 材料</t>
         </is>
       </c>
     </row>
@@ -4313,17 +4313,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5489</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10964.0</t>
+          <t>3122.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4333,27 +4333,27 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>12.61</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>82.32</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4363,72 +4363,72 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>13.12</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>8680</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-6.06</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>-5.10</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>-5.53</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4438,32 +4438,32 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>-299841.0</t>
+          <t>77219.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>彩富</t>
+          <t>友威科</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -4478,57 +4478,57 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>24.6</t>
+          <t>13.96</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>38.43%</t>
+          <t>40.63%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>12.78%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>29.04</t>
+          <t>28.92</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>6039</t>
+          <t>2798</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>安全監控系統91.23%、其他8.55%、機器視覺系統0.22% (2024年)</t>
+          <t>設備及售後服務85.48%、客戶委託代工(OEM)14.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>彩富-其他電子業-上櫃</t>
+          <t>友威科-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>其他電子業平</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>23.44</t>
+          <t>27.27</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 平面顯示器 - 生產製程及檢測設備</t>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -4555,17 +4555,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-1.78</t>
+          <t>-5.4</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23443.0</t>
+          <t>714.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4575,104 +4575,104 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-8.75</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>59.92</t>
+          <t>33.79</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2235.0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>-99.87</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>-136.69</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>35.95</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>20.9</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>1467</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>-3.63</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>41.0</t>
-        </is>
-      </c>
       <c r="Z18" t="inlineStr">
         <is>
           <t>True</t>
@@ -4680,37 +4680,37 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>-47153.0</t>
+          <t>-1422571.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>鑫聯大投控</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4720,57 +4720,57 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>12.21</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>18.7</t>
+          <t>99.28</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>4.94%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>57.29%</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>32.13</t>
+          <t>67.65</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>5707</t>
+          <t>185169</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>電腦,零組件及週邊設備99.30%、其他0.70% (2024年)</t>
+          <t>權利金收入68.55%、技術服務31.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
+          <t>力旺-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>23.26</t>
+          <t>53.93</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -4780,12 +4780,12 @@
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 中央處理器、晶片組、面板、顯示器模組、記憶體、主機板、機殼、電源供應器、網路卡、電池、散熱片、風扇馬達、散熱模組、輸出入模組/介面卡、顯示卡、硬碟機、光碟機、磁碟儲存系統、BIOS(嵌入式軟體)、筆記型電腦、桌上型電腦、工業電腦、精簡型電腦、伺服器、其他電腦及週邊設備、隨身碟、記憶卡讀卡機、多功能視訊卡、光學鏡片、鏡頭、光碟片、連接線、機構樞紐、金屬、塑膠模具、印表機、傳真機、掃瞄器、多功能事務機、投影機、安全監控系統、其他電腦及週邊設備之零組件</t>
+          <t>** 半導體 - IP設計/IC設計代工服務</t>
         </is>
       </c>
     </row>
@@ -4797,17 +4797,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>3466</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>-4.15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3122.0</t>
+          <t>1131.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4817,142 +4817,142 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>12.61</t>
+          <t>-3.50</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>38.5</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>-3.96</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>-4.34</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>61.6</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>707</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>-1.92</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>-5.10</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>-5.53</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>77219.0</t>
+          <t>-23163.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>友威科</t>
+          <t>德晉</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4962,57 +4962,57 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>13.31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>40.63%</t>
+          <t>13.85%</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>12.78%</t>
+          <t>-77.81%</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>29.04</t>
+          <t>90.87</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>2668</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>設備及售後服務85.48%、客戶委託代工(OEM)14.52% (2024年)</t>
+          <t>機上盒及零組件84.11%、其他電子產品5.51%、儲能設備及零組件5.19%、再生能源(RE)5.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>友威科-其他電子業-上櫃</t>
+          <t>德晉-通信網路業-上櫃</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>其他電子業平</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>27.27</t>
+          <t>11.52</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -5022,12 +5022,12 @@
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 通信網路 - 無線通訊設備(如行動電話、衛星定位系統、衛星通訊設備、微波通訊設備、數位機上盒)</t>
         </is>
       </c>
     </row>
@@ -5039,17 +5039,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>714.0</t>
+          <t>7452.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5059,27 +5059,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>33.79</t>
+          <t>39.90</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2235.0</t>
+          <t>213.0</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -5089,84 +5089,84 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>21.4</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>525</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>41.44</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-3.27</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-99.87</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-136.69</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>2025-04-16</t>
@@ -5174,27 +5174,27 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>-1422571.0</t>
+          <t>5816912.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>大綜</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -5204,57 +5204,57 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>12.21</t>
+          <t>41.05</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>97.48</t>
+          <t>20.15</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>57.29%</t>
+          <t>8.92%</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>67.4</t>
+          <t>27.67</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>181809</t>
+          <t>10571</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>權利金收入68.55%、技術服務31.45% (2024年)</t>
+          <t>商品銷售89.73%、服務合約6.40%、建造合同3.87% (2024年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>力旺-半導體業-上櫃</t>
+          <t>大綜-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>53.93</t>
+          <t>39.84</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -5264,12 +5264,12 @@
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>** 半導體 - IP設計/IC設計代工服務</t>
+          <t>** 電腦及週邊設備 - 伺服器、其他電腦及週邊設備之零組件** 軟體服務 - 系統整合服務、通路經銷</t>
         </is>
       </c>
     </row>
@@ -5281,17 +5281,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3466</t>
+          <t>3051</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-4.15</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1131.0</t>
+          <t>868.525</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5301,27 +5301,27 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-3.50</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>18.71</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>28.5</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5331,72 +5331,72 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>832</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>-3.29</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-3.96</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-4.34</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5411,92 +5411,92 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>-23163.0</t>
+          <t>30099561.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>德晉</t>
+          <t>力特</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.02</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>13.85%</t>
+          <t>39.20%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>-77.81%</t>
+          <t>21.61%</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>77.23</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>5129</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>機上盒及零組件84.11%、其他電子產品5.51%、儲能設備及零組件5.19%、再生能源(RE)5.19% (2024年)</t>
+          <t>電子偏光板及其他光學材料100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>德晉-通信網路業-上櫃</t>
+          <t>力特-光電業-上市</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>11.52</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -5506,12 +5506,12 @@
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>** 通信網路 - 無線通訊設備(如行動電話、衛星定位系統、衛星通訊設備、微波通訊設備、數位機上盒)</t>
+          <t>** 平面顯示器 - 其他零組件</t>
         </is>
       </c>
     </row>
@@ -5523,17 +5523,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>3050</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>7452.0</t>
+          <t>660.923</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5543,27 +5543,27 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>39.90</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>213.0</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5573,72 +5573,72 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>21.98</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>533</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -5653,92 +5653,92 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>5816912.0</t>
+          <t>4372662.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>大綜</t>
+          <t>鈺德</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>41.05</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>22.86</t>
+          <t>25.27</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>15.00%</t>
+          <t>29.42%</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>-3.80%</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>27.96</t>
+          <t>77.23</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>10649</t>
+          <t>2154</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>商品銷售89.73%、服務合約6.40%、建造合同3.87% (2024年)</t>
+          <t>DVD預錄式光碟片35.75%、電力26.17%、餐飲22.57%、照護服務12.66%、其他2.85% (2024年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>大綜-資訊服務業-上櫃</t>
+          <t>鈺德-光電業-上市</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>光電業右下</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>39.84</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -5748,12 +5748,12 @@
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 伺服器、其他電腦及週邊設備之零組件** 軟體服務 - 系統整合服務、通路經銷</t>
+          <t>** 電腦及週邊設備 - 光碟片** 太陽能產業 - 太陽能電廠</t>
         </is>
       </c>
     </row>
@@ -5765,17 +5765,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3050</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>660.923</t>
+          <t>1354.699</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5785,17 +5785,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>23.99</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>254.0</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5815,32 +5815,32 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>32</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>1428</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -5850,42 +5850,42 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -5895,32 +5895,32 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>4372662.0</t>
+          <t>-311467728.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>鈺德</t>
+          <t>統一超</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>貿易百貨</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5930,57 +5930,57 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>81.42</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>24.91</t>
+          <t>23.76</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>29.42%</t>
+          <t>33.95%</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>-3.80%</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>76.04</t>
+          <t>36.01</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>2123</t>
+          <t>272901</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>DVD預錄式光碟片35.75%、電力26.17%、餐飲22.57%、照護服務12.66%、其他2.85% (2024年)</t>
+          <t>便利商店(含海外子公司)77.94%、日用百貨買賣7.53%、餐飲業5.11%、宅配貨運3.98%、加油站3.11%、其他1.52%、物流0.81% (2024年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>鈺德-光電業-上市</t>
+          <t>統一超-貿易百貨-上市</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>光電業右下</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>16.32</t>
+          <t>43.87</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 光碟片** 太陽能產業 - 太陽能電廠</t>
+          <t>** 貿易百貨 - 零售通路</t>
         </is>
       </c>
     </row>
@@ -6007,17 +6007,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>2736</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-2.27</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1354.699</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -6027,17 +6027,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>23.99</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>254.0</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -6057,57 +6057,57 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>16.22</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>813</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-1.84</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -6117,112 +6117,112 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>-311467728.0</t>
+          <t>-2926.0</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>統一超</t>
+          <t>富野</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>貿易百貨</t>
+          <t>觀光事業</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>81.42</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>23.62</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>33.95%</t>
+          <t>48.90%</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>4.28%</t>
+          <t>-11.38%</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>35.75</t>
+          <t>27.34</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>271341</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>便利商店(含海外子公司)77.94%、日用百貨買賣7.53%、餐飲業5.11%、宅配貨運3.98%、加油站3.11%、其他1.52%、物流0.81% (2024年)</t>
+          <t>飯店客房65.17%、餐飲29.49%、其他5.34% (2024年)</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>統一超-貿易百貨-上市</t>
+          <t>富野-觀光事業-上櫃</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>43.87</t>
+          <t>20.97</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>** 貿易百貨 - 零售通路</t>
+          <t>** 休閒娛樂 - 旅館服務業</t>
         </is>
       </c>
     </row>
@@ -6249,17 +6249,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2736</t>
+          <t>2633</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-2.27</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>7043.806</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -6269,17 +6269,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>35.68</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>26.95</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -6299,57 +6299,57 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>15.76</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1312</t>
+          <t>3241</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -6359,12 +6359,12 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -6374,97 +6374,97 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>-2926.0</t>
+          <t>54937660.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>富野</t>
+          <t>台灣高鐵</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>觀光事業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>48.90%</t>
+          <t>46.50%</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>-11.38%</t>
+          <t>42.88%</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>26.1</t>
+          <t>17.71</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>72147</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>飯店客房65.17%、餐飲29.49%、其他5.34% (2024年)</t>
+          <t>鐵路運輸96.36%、其他營業收入3.64% (2024年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>富野-觀光事業-上櫃</t>
+          <t>台灣高鐵-航運業-上市</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>20.97</t>
+          <t>13.14</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -6474,12 +6474,12 @@
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>** 休閒娛樂 - 旅館服務業</t>
+          <t>** 交通運輸及航運 - 海陸空大眾運輸</t>
         </is>
       </c>
     </row>
@@ -6491,17 +6491,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2633</t>
+          <t>2617</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7043.806</t>
+          <t>276.843</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6511,27 +6511,27 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>35.68</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>26.95</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -6541,57 +6541,57 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>3344</t>
+          <t>583</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -6601,12 +6601,12 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -6616,32 +6616,32 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>54937660.0</t>
+          <t>1295488.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>台灣高鐵</t>
+          <t>台航</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
@@ -6656,47 +6656,47 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>23.91</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>43.12%</t>
+          <t>38.17%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>39.47%</t>
+          <t>33.82%</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>17.58</t>
+          <t>17.71</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>72278</t>
+          <t>11872</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>鐵路運輸96.36%、其他營業收入3.64% (2024年)</t>
+          <t>遠洋航線81.34%、港勤7.37%、沿海航線6.26%、代管操作3.43%、其他1.59% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>台灣高鐵-航運業-上市</t>
+          <t>台航-航運業-上市</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>44.54</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -6716,12 +6716,12 @@
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 海陸空大眾運輸</t>
+          <t>** 交通運輸及航運 - 散裝航運</t>
         </is>
       </c>
     </row>
@@ -6733,17 +6733,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2617</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>276.843</t>
+          <t>2746.133</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6753,27 +6753,27 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>10.80</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -6793,62 +6793,62 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>601</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -6858,7 +6858,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -6868,27 +6868,27 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>1295488.0</t>
+          <t>23316196.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>台航</t>
+          <t>國碩</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6898,57 +6898,57 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>38.17%</t>
+          <t>-1.39%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>33.82%</t>
+          <t>-33.29%</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>17.58</t>
+          <t>77.23</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>11789</t>
+          <t>4246</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>遠洋航線81.34%、港勤7.37%、沿海航線6.26%、代管操作3.43%、其他1.59% (2024年)</t>
+          <t>導電漿85.53%、其他7.20%、電力3.87%、工程2.60%、太陽能矽輔料0.80% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>台航-航運業-上市</t>
+          <t>國碩-光電業-上市</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>光電業右下</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>44.54</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -6958,12 +6958,12 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 散裝航運</t>
+          <t>** 太陽能產業 - 太陽能發電設備/系統及系統工程、太陽能電廠</t>
         </is>
       </c>
     </row>
@@ -6975,17 +6975,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>-3.73</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2746.133</t>
+          <t>20203.432</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10.80</t>
+          <t>-2.68</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -7005,17 +7005,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>18.14</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>223.5</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -7025,112 +7025,112 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>392</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>22726</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-6.29</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-8.92</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>23316196.0</t>
+          <t>1594499080.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>國碩</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -7140,57 +7140,57 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>108.27</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.56</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>-1.39%</t>
+          <t>7.45%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>-33.29%</t>
+          <t>3.63%</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>76.04</t>
+          <t>97.37</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>4246</t>
+          <t>990764</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>導電漿85.53%、其他7.20%、電力3.87%、工程2.60%、太陽能矽輔料0.80% (2024年)</t>
+          <t>電子產品99.68%、其他產品0.32% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>國碩-光電業-上市</t>
+          <t>廣達-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>光電業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>57.67</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -7200,12 +7200,12 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>** 太陽能產業 - 太陽能發電設備/系統及系統工程、太陽能電廠</t>
+          <t>** 電腦及週邊設備 - 筆記型電腦、其他電腦及週邊設備之零組件** 雲端運算 - 電腦設備、伺服器、儲存、網路** 運動科技 - 穿戴式裝置</t>
         </is>
       </c>
     </row>
@@ -7217,17 +7217,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-3.73</t>
+          <t>-4.45</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20203.432</t>
+          <t>588.765</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7237,27 +7237,27 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-2.68</t>
+          <t>-1.65</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>18.14</t>
+          <t>15.96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>223.5</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -7267,77 +7267,77 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>16832</t>
+          <t>996</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-6.29</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-8.92</t>
+          <t>-2.08</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -7347,32 +7347,32 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>1594499080.0</t>
+          <t>-183388750.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>為升</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -7382,57 +7382,57 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>108.27</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>16.24</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>7.45%</t>
+          <t>31.32%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>3.63%</t>
+          <t>8.59%</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>96.15</t>
+          <t>19.42</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>971451</t>
+          <t>12964</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>電子產品99.68%、其他產品0.32% (2024年)</t>
+          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>廣達-電腦及週邊設備業-上市</t>
+          <t>為升-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>57.67</t>
+          <t>30.48</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 筆記型電腦、其他電腦及週邊設備之零組件** 雲端運算 - 電腦設備、伺服器、儲存、網路** 運動科技 - 穿戴式裝置</t>
+          <t>** 汽車 - 整車組裝、修理及技術服務</t>
         </is>
       </c>
     </row>
@@ -7509,7 +7509,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -7519,7 +7519,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>914</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -7634,7 +7634,7 @@
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>10.07</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
@@ -7649,12 +7649,12 @@
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.42</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>40359</t>
+          <t>39916</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -7751,7 +7751,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>14.21</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -7771,12 +7771,12 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
@@ -7891,12 +7891,12 @@
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>19.3</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>9467</t>
+          <t>9325</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -7993,17 +7993,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>12.96</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>1454</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8013,12 +8013,12 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -8118,7 +8118,7 @@
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>11.38</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
@@ -8133,12 +8133,12 @@
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>19.3</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>33608</t>
+          <t>34108</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -8235,17 +8235,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>1055</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
@@ -8375,12 +8375,12 @@
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>37.42</t>
+          <t>40.24</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>30956</t>
+          <t>31054</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -8477,17 +8477,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>54</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1869</t>
+          <t>6807</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -8497,12 +8497,12 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
@@ -8562,7 +8562,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
@@ -8617,12 +8617,12 @@
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>85.67</t>
+          <t>244.96</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>13279</t>
+          <t>13777</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -8719,17 +8719,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3156</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
@@ -8834,7 +8834,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>14.84</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
@@ -8859,12 +8859,12 @@
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>44.03</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>56549</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
